--- a/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Extended_final_table_April2021_ITS_noBlank_correctedIDs.xlsx
+++ b/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Extended_final_table_April2021_ITS_noBlank_correctedIDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katrinae\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B105FD6-2B9C-4645-A7B9-02B1F1054992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAA7B09-45AE-4CE3-9A70-B5979705ED14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1750" yWindow="1700" windowWidth="17230" windowHeight="9280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="3340" windowWidth="14710" windowHeight="6830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2062,112 +2062,112 @@
     <t>Epicoccum:104397</t>
   </si>
   <si>
-    <t>ARMS_Crete_1HERP_190612_191011_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_190612_191011_MF90</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_190612_191011_SF</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_190612_200210_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_190612_200210_MF90</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_190612_200210_SF</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_190612_200618_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_190612_200618_MF90</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_1HERP_190612_200618_SF</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_2UBPC_190924_201211_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_2UBPC_190924_201211_MF90</t>
-  </si>
-  <si>
-    <t>ARMS_Crete_2UBPC_190924_201211_SF</t>
-  </si>
-  <si>
-    <t>ARMS_Gdynia_GDY1_190619_191029_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Getxo_G2_190624_191016_MF100</t>
-  </si>
-  <si>
-    <t>ARMS_Roscoff_BasBloS1_190612_200527_SF40</t>
-  </si>
-  <si>
-    <t>ARMS_Roscoff_BasBloS2_190612_200528_MF100</t>
-  </si>
-  <si>
-    <t>ARMS_Roscoff_BasBloS2_190612_200528_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Roscoff_BasBloS3_190612_200529_MF100</t>
-  </si>
-  <si>
-    <t>ARMS_Roscoff_BasBloS3_190612_200529_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Roscoff_BasBloS3_190612_200529_SF40</t>
-  </si>
-  <si>
-    <t>ARMS_Svalbard_S1_180706_190806_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Svalbard_S1_190806_200804_MF100</t>
-  </si>
-  <si>
-    <t>ARMS_Svalbard_S1_190806_200804_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Svalbard_S2_190805_200801_SF40</t>
-  </si>
-  <si>
-    <t>ARMS_Vigo_TorallaA_190625_191014_SF40</t>
-  </si>
-  <si>
-    <t>ARMS_BelgiumCoast_AZBE1_190924_200303_SF40</t>
-  </si>
-  <si>
-    <t>ARMS_Laeso_Laeso1_190819_200811_MF100</t>
-  </si>
-  <si>
-    <t>ARMS_Laeso_Laeso1_190819_200811_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Laeso_Laeso1_190819_200811_SF40</t>
-  </si>
-  <si>
-    <t>ARMS_Laeso_Laeso2_190819_200811_MF100</t>
-  </si>
-  <si>
-    <t>ARMS_Laeso_Laeso2_190819_200811_SF40</t>
-  </si>
-  <si>
-    <t>ARMS_Laeso_Laeso3_190819_200811_MF100</t>
-  </si>
-  <si>
-    <t>ARMS_Laeso_Laeso3_190819_200811_MF500</t>
-  </si>
-  <si>
-    <t>ARMS_Laeso_Laeso3_190819_200811_SF40</t>
-  </si>
-  <si>
-    <t>ARMS_Svalbard_S1_180706_190806_SF40_ETOH</t>
-  </si>
-  <si>
-    <t>ARMS_Svalbard_S2_180708_190805_MF100_ETOH</t>
+    <t>ARMS_Crete_1HERP_20190612_20191011_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_202191011_MF90</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_20191011_SF</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_20200210_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_20200210_MF90</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_20200210_SF</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_20200618_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_20200618_MF90</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_20200618_SF</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_2UBPC_20190924_20201211_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_2UBPC_20190924_20201211_MF90</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_2UBPC_20190924_20201211_SF</t>
+  </si>
+  <si>
+    <t>ARMS_Gdynia_GDY1_20190619_20191029_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Getxo_G2_20190624_20191016_MF100_</t>
+  </si>
+  <si>
+    <t>ARMS_Laeso_Laeso1_20190819_20200811_MF100</t>
+  </si>
+  <si>
+    <t>ARMS_Laeso_Laeso1_20190819_20200811_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Laeso_Laeso1_20190819_20200811_SF40</t>
+  </si>
+  <si>
+    <t>ARMS_Laeso_Laeso2_20190819_20200811_MF100</t>
+  </si>
+  <si>
+    <t>ARMS_Laeso_Laeso2_20190819_20200811_SF40</t>
+  </si>
+  <si>
+    <t>ARMS_Laeso_Laeso3_20190819_20200811_MF100</t>
+  </si>
+  <si>
+    <t>ARMS_Laeso_Laeso3_20190819_20200811_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Laeso_Laeso3_20190819_20200811_SF40</t>
+  </si>
+  <si>
+    <t>ARMS_Roscoff_BasBloS1_20190612_20200527_SF40</t>
+  </si>
+  <si>
+    <t>ARMS_Roscoff_BasBloS2_20190612_20200528_MF100</t>
+  </si>
+  <si>
+    <t>ARMS_Roscoff_BasBloS2_20190612_20200528_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Roscoff_BasBloS3_20190612_20200529_MF100</t>
+  </si>
+  <si>
+    <t>ARMS_Roscoff_BasBloS3_20190612_20200529_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Roscoff_BasBloS3_20190612_20200529_SF40</t>
+  </si>
+  <si>
+    <t>ARMS_Svalbard_S1_20180706_20190806_MF500_ITS</t>
+  </si>
+  <si>
+    <t>ARMS_Svalbard_S1_20180706_20190806_SF40_ETOH</t>
+  </si>
+  <si>
+    <t>ARMS_Svalbard_S1_20190806_20200804_MF100</t>
+  </si>
+  <si>
+    <t>ARMS_Svalbard_S1_20190806_20200804_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Svalbard_S2_20180708_20190805_MF100_ETOH</t>
+  </si>
+  <si>
+    <t>ARMS_Svalbard_S2_20190805_20200801_SF40</t>
+  </si>
+  <si>
+    <t>ARMS_Vigo_TorallaA_20190625_20191014_SF40</t>
+  </si>
+  <si>
+    <t>ARMS_BelgiumCoast_AZBE1_20190924_20200303_SF40</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2214,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2435,132 +2435,132 @@
   </sheetPr>
   <dimension ref="A1:AO281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.36328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H1" t="s">
+        <v>685</v>
+      </c>
+      <c r="I1" t="s">
+        <v>686</v>
+      </c>
+      <c r="J1" t="s">
+        <v>687</v>
+      </c>
+      <c r="K1" t="s">
+        <v>688</v>
+      </c>
+      <c r="L1" t="s">
+        <v>689</v>
+      </c>
+      <c r="M1" t="s">
+        <v>690</v>
+      </c>
+      <c r="N1" t="s">
+        <v>691</v>
+      </c>
+      <c r="O1" t="s">
+        <v>692</v>
+      </c>
+      <c r="P1" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>694</v>
+      </c>
+      <c r="R1" t="s">
+        <v>695</v>
+      </c>
+      <c r="S1" t="s">
+        <v>696</v>
+      </c>
+      <c r="T1" t="s">
+        <v>697</v>
+      </c>
+      <c r="U1" t="s">
+        <v>698</v>
+      </c>
+      <c r="V1" t="s">
+        <v>699</v>
+      </c>
+      <c r="W1" t="s">
+        <v>700</v>
+      </c>
+      <c r="X1" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>702</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>703</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>704</v>
+      </c>
+      <c r="AB1" t="s">
         <v>705</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>706</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>707</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>708</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AF1" t="s">
         <v>709</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AG1" t="s">
         <v>710</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AH1" t="s">
         <v>711</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AI1" t="s">
         <v>712</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AJ1" t="s">
         <v>713</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" t="s">
         <v>714</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
     <row r="2" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -2680,7 +2680,7 @@
       <c r="AM2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="4"/>
+      <c r="AN2" s="3"/>
       <c r="AO2" s="1"/>
     </row>
     <row r="3" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2801,7 +2801,7 @@
       <c r="AM3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="4"/>
+      <c r="AN3" s="3"/>
       <c r="AO3" s="1"/>
     </row>
     <row r="4" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2922,7 +2922,7 @@
       <c r="AM4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" s="4"/>
+      <c r="AN4" s="3"/>
       <c r="AO4" s="1"/>
     </row>
     <row r="5" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3043,8 +3043,8 @@
       <c r="AM5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
     </row>
     <row r="6" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -3164,7 +3164,7 @@
       <c r="AM6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AN6" s="4"/>
+      <c r="AN6" s="3"/>
       <c r="AO6" s="1"/>
     </row>
     <row r="7" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3285,7 +3285,7 @@
       <c r="AM7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AN7" s="4"/>
+      <c r="AN7" s="3"/>
       <c r="AO7" s="1"/>
     </row>
     <row r="8" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3406,8 +3406,8 @@
       <c r="AM8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
     </row>
     <row r="9" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -3527,7 +3527,7 @@
       <c r="AM9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="4"/>
+      <c r="AN9" s="3"/>
       <c r="AO9" s="1"/>
     </row>
     <row r="10" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3648,8 +3648,8 @@
       <c r="AM10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
     </row>
     <row r="11" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -3769,7 +3769,7 @@
       <c r="AM11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AN11" s="4"/>
+      <c r="AN11" s="3"/>
       <c r="AO11" s="1"/>
     </row>
     <row r="12" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3890,7 +3890,7 @@
       <c r="AM12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AN12" s="4"/>
+      <c r="AN12" s="3"/>
       <c r="AO12" s="1"/>
     </row>
     <row r="13" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4011,8 +4011,8 @@
       <c r="AM13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
     </row>
     <row r="14" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -4132,8 +4132,8 @@
       <c r="AM14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
     </row>
     <row r="15" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -4253,8 +4253,8 @@
       <c r="AM15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
     </row>
     <row r="16" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -4374,7 +4374,7 @@
       <c r="AM16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN16" s="4"/>
+      <c r="AN16" s="3"/>
       <c r="AO16" s="1"/>
     </row>
     <row r="17" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -4495,7 +4495,7 @@
       <c r="AM17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AN17" s="4"/>
+      <c r="AN17" s="3"/>
       <c r="AO17" s="1"/>
     </row>
     <row r="18" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -4616,8 +4616,8 @@
       <c r="AM18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
@@ -4737,8 +4737,8 @@
       <c r="AM19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -4858,8 +4858,8 @@
       <c r="AM20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -4979,7 +4979,7 @@
       <c r="AM21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN21" s="4"/>
+      <c r="AN21" s="3"/>
       <c r="AO21" s="1"/>
     </row>
     <row r="22" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -5100,7 +5100,7 @@
       <c r="AM22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AN22" s="4"/>
+      <c r="AN22" s="3"/>
       <c r="AO22" s="1"/>
     </row>
     <row r="23" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -5221,7 +5221,7 @@
       <c r="AM23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN23" s="4"/>
+      <c r="AN23" s="3"/>
       <c r="AO23" s="1"/>
     </row>
     <row r="24" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -5342,7 +5342,7 @@
       <c r="AM24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AN24" s="4"/>
+      <c r="AN24" s="3"/>
       <c r="AO24" s="1"/>
     </row>
     <row r="25" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -5463,8 +5463,8 @@
       <c r="AM25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="4"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
     </row>
     <row r="26" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -5584,8 +5584,8 @@
       <c r="AM26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
     </row>
     <row r="27" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -5705,7 +5705,7 @@
       <c r="AM27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AN27" s="4"/>
+      <c r="AN27" s="3"/>
       <c r="AO27" s="1"/>
     </row>
     <row r="28" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -5826,8 +5826,8 @@
       <c r="AM28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
     </row>
     <row r="29" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -5947,7 +5947,7 @@
       <c r="AM29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AN29" s="4"/>
+      <c r="AN29" s="3"/>
       <c r="AO29" s="1"/>
     </row>
     <row r="30" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6068,8 +6068,8 @@
       <c r="AM30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AN30" s="4"/>
-      <c r="AO30" s="4"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
     </row>
     <row r="31" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -6189,7 +6189,7 @@
       <c r="AM31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN31" s="4"/>
+      <c r="AN31" s="3"/>
       <c r="AO31" s="1"/>
     </row>
     <row r="32" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6310,7 +6310,7 @@
       <c r="AM32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AN32" s="4"/>
+      <c r="AN32" s="3"/>
       <c r="AO32" s="1"/>
     </row>
     <row r="33" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6431,7 +6431,7 @@
       <c r="AM33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN33" s="4"/>
+      <c r="AN33" s="3"/>
       <c r="AO33" s="1"/>
     </row>
     <row r="34" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6552,7 +6552,7 @@
       <c r="AM34" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AN34" s="4"/>
+      <c r="AN34" s="3"/>
       <c r="AO34" s="1"/>
     </row>
     <row r="35" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6673,7 +6673,7 @@
       <c r="AM35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AN35" s="4"/>
+      <c r="AN35" s="3"/>
       <c r="AO35" s="1"/>
     </row>
     <row r="36" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6794,7 +6794,7 @@
       <c r="AM36" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AN36" s="4"/>
+      <c r="AN36" s="3"/>
       <c r="AO36" s="1"/>
     </row>
     <row r="37" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6915,7 +6915,7 @@
       <c r="AM37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AN37" s="4"/>
+      <c r="AN37" s="3"/>
       <c r="AO37" s="1"/>
     </row>
     <row r="38" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -7036,7 +7036,7 @@
       <c r="AM38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN38" s="4"/>
+      <c r="AN38" s="3"/>
       <c r="AO38" s="1"/>
     </row>
     <row r="39" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -7157,8 +7157,8 @@
       <c r="AM39" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
     </row>
     <row r="40" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
@@ -7278,7 +7278,7 @@
       <c r="AM40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AN40" s="4"/>
+      <c r="AN40" s="3"/>
       <c r="AO40" s="1"/>
     </row>
     <row r="41" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -7399,8 +7399,8 @@
       <c r="AM41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AN41" s="4"/>
-      <c r="AO41" s="4"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
     </row>
     <row r="42" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
@@ -7520,8 +7520,8 @@
       <c r="AM42" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AN42" s="4"/>
-      <c r="AO42" s="4"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
     </row>
     <row r="43" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
@@ -7641,7 +7641,7 @@
       <c r="AM43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN43" s="4"/>
+      <c r="AN43" s="3"/>
       <c r="AO43" s="1"/>
     </row>
     <row r="44" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -7762,8 +7762,8 @@
       <c r="AM44" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AN44" s="4"/>
-      <c r="AO44" s="4"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
     </row>
     <row r="45" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
@@ -7883,8 +7883,8 @@
       <c r="AM45" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AN45" s="4"/>
-      <c r="AO45" s="4"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
     </row>
     <row r="46" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
@@ -8004,8 +8004,8 @@
       <c r="AM46" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AN46" s="4"/>
-      <c r="AO46" s="4"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
     </row>
     <row r="47" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
@@ -8125,8 +8125,8 @@
       <c r="AM47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AN47" s="4"/>
-      <c r="AO47" s="4"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
     </row>
     <row r="48" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
@@ -8246,7 +8246,7 @@
       <c r="AM48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AN48" s="4"/>
+      <c r="AN48" s="3"/>
       <c r="AO48" s="1"/>
     </row>
     <row r="49" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -8367,7 +8367,7 @@
       <c r="AM49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AN49" s="4"/>
+      <c r="AN49" s="3"/>
       <c r="AO49" s="1"/>
     </row>
     <row r="50" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -8488,8 +8488,8 @@
       <c r="AM50" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AN50" s="4"/>
-      <c r="AO50" s="4"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
     </row>
     <row r="51" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
@@ -8609,7 +8609,7 @@
       <c r="AM51" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AN51" s="4"/>
+      <c r="AN51" s="3"/>
       <c r="AO51" s="1"/>
     </row>
     <row r="52" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -8730,8 +8730,8 @@
       <c r="AM52" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AN52" s="4"/>
-      <c r="AO52" s="4"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
     </row>
     <row r="53" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -8851,8 +8851,8 @@
       <c r="AM53" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AN53" s="4"/>
-      <c r="AO53" s="4"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
     </row>
     <row r="54" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
@@ -8972,8 +8972,8 @@
       <c r="AM54" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AN54" s="4"/>
-      <c r="AO54" s="4"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
     </row>
     <row r="55" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
@@ -9093,8 +9093,8 @@
       <c r="AM55" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AN55" s="4"/>
-      <c r="AO55" s="4"/>
+      <c r="AN55" s="3"/>
+      <c r="AO55" s="3"/>
     </row>
     <row r="56" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
@@ -9214,7 +9214,7 @@
       <c r="AM56" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN56" s="4"/>
+      <c r="AN56" s="3"/>
       <c r="AO56" s="1"/>
     </row>
     <row r="57" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -9335,8 +9335,8 @@
       <c r="AM57" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AN57" s="4"/>
-      <c r="AO57" s="4"/>
+      <c r="AN57" s="3"/>
+      <c r="AO57" s="3"/>
     </row>
     <row r="58" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
@@ -9456,7 +9456,7 @@
       <c r="AM58" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AN58" s="4"/>
+      <c r="AN58" s="3"/>
       <c r="AO58" s="1"/>
     </row>
     <row r="59" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -9577,8 +9577,8 @@
       <c r="AM59" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AN59" s="4"/>
-      <c r="AO59" s="4"/>
+      <c r="AN59" s="3"/>
+      <c r="AO59" s="3"/>
     </row>
     <row r="60" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
@@ -9698,8 +9698,8 @@
       <c r="AM60" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AN60" s="4"/>
-      <c r="AO60" s="4"/>
+      <c r="AN60" s="3"/>
+      <c r="AO60" s="3"/>
     </row>
     <row r="61" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
@@ -9819,7 +9819,7 @@
       <c r="AM61" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AN61" s="4"/>
+      <c r="AN61" s="3"/>
       <c r="AO61" s="1"/>
     </row>
     <row r="62" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -9940,8 +9940,8 @@
       <c r="AM62" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AN62" s="4"/>
-      <c r="AO62" s="4"/>
+      <c r="AN62" s="3"/>
+      <c r="AO62" s="3"/>
     </row>
     <row r="63" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
@@ -10061,7 +10061,7 @@
       <c r="AM63" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AN63" s="4"/>
+      <c r="AN63" s="3"/>
       <c r="AO63" s="1"/>
     </row>
     <row r="64" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -10182,8 +10182,8 @@
       <c r="AM64" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AN64" s="4"/>
-      <c r="AO64" s="4"/>
+      <c r="AN64" s="3"/>
+      <c r="AO64" s="3"/>
     </row>
     <row r="65" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
@@ -10303,7 +10303,7 @@
       <c r="AM65" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AN65" s="4"/>
+      <c r="AN65" s="3"/>
       <c r="AO65" s="1"/>
     </row>
     <row r="66" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -10424,7 +10424,7 @@
       <c r="AM66" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AN66" s="4"/>
+      <c r="AN66" s="3"/>
       <c r="AO66" s="1"/>
     </row>
     <row r="67" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -10545,7 +10545,7 @@
       <c r="AM67" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN67" s="4"/>
+      <c r="AN67" s="3"/>
       <c r="AO67" s="1"/>
     </row>
     <row r="68" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -10666,7 +10666,7 @@
       <c r="AM68" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="AN68" s="4"/>
+      <c r="AN68" s="3"/>
       <c r="AO68" s="1"/>
     </row>
     <row r="69" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -10787,7 +10787,7 @@
       <c r="AM69" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AN69" s="4"/>
+      <c r="AN69" s="3"/>
       <c r="AO69" s="1"/>
     </row>
     <row r="70" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -10908,8 +10908,8 @@
       <c r="AM70" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AN70" s="4"/>
-      <c r="AO70" s="4"/>
+      <c r="AN70" s="3"/>
+      <c r="AO70" s="3"/>
     </row>
     <row r="71" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
@@ -11029,8 +11029,8 @@
       <c r="AM71" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="AN71" s="4"/>
-      <c r="AO71" s="4"/>
+      <c r="AN71" s="3"/>
+      <c r="AO71" s="3"/>
     </row>
     <row r="72" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
@@ -11150,7 +11150,7 @@
       <c r="AM72" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN72" s="4"/>
+      <c r="AN72" s="3"/>
       <c r="AO72" s="1"/>
     </row>
     <row r="73" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -11271,7 +11271,7 @@
       <c r="AM73" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN73" s="4"/>
+      <c r="AN73" s="3"/>
       <c r="AO73" s="1"/>
     </row>
     <row r="74" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -11392,8 +11392,8 @@
       <c r="AM74" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AN74" s="4"/>
-      <c r="AO74" s="4"/>
+      <c r="AN74" s="3"/>
+      <c r="AO74" s="3"/>
     </row>
     <row r="75" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
@@ -11513,7 +11513,7 @@
       <c r="AM75" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AN75" s="4"/>
+      <c r="AN75" s="3"/>
       <c r="AO75" s="1"/>
     </row>
     <row r="76" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -11634,7 +11634,7 @@
       <c r="AM76" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AN76" s="4"/>
+      <c r="AN76" s="3"/>
       <c r="AO76" s="1"/>
     </row>
     <row r="77" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -11755,8 +11755,8 @@
       <c r="AM77" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AN77" s="4"/>
-      <c r="AO77" s="4"/>
+      <c r="AN77" s="3"/>
+      <c r="AO77" s="3"/>
     </row>
     <row r="78" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
@@ -11876,7 +11876,7 @@
       <c r="AM78" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AN78" s="4"/>
+      <c r="AN78" s="3"/>
       <c r="AO78" s="1"/>
     </row>
     <row r="79" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -11997,8 +11997,8 @@
       <c r="AM79" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="AN79" s="4"/>
-      <c r="AO79" s="4"/>
+      <c r="AN79" s="3"/>
+      <c r="AO79" s="3"/>
     </row>
     <row r="80" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
@@ -12118,7 +12118,7 @@
       <c r="AM80" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AN80" s="4"/>
+      <c r="AN80" s="3"/>
       <c r="AO80" s="1"/>
     </row>
     <row r="81" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -12239,7 +12239,7 @@
       <c r="AM81" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN81" s="4"/>
+      <c r="AN81" s="3"/>
       <c r="AO81" s="1"/>
     </row>
     <row r="82" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -12360,8 +12360,8 @@
       <c r="AM82" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AN82" s="4"/>
-      <c r="AO82" s="4"/>
+      <c r="AN82" s="3"/>
+      <c r="AO82" s="3"/>
     </row>
     <row r="83" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
@@ -12481,7 +12481,7 @@
       <c r="AM83" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN83" s="4"/>
+      <c r="AN83" s="3"/>
       <c r="AO83" s="1"/>
     </row>
     <row r="84" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -12602,8 +12602,8 @@
       <c r="AM84" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AN84" s="4"/>
-      <c r="AO84" s="4"/>
+      <c r="AN84" s="3"/>
+      <c r="AO84" s="3"/>
     </row>
     <row r="85" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
@@ -12723,8 +12723,8 @@
       <c r="AM85" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AN85" s="4"/>
-      <c r="AO85" s="4"/>
+      <c r="AN85" s="3"/>
+      <c r="AO85" s="3"/>
     </row>
     <row r="86" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
@@ -12844,8 +12844,8 @@
       <c r="AM86" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AN86" s="4"/>
-      <c r="AO86" s="4"/>
+      <c r="AN86" s="3"/>
+      <c r="AO86" s="3"/>
     </row>
     <row r="87" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
@@ -12965,8 +12965,8 @@
       <c r="AM87" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="AN87" s="4"/>
-      <c r="AO87" s="4"/>
+      <c r="AN87" s="3"/>
+      <c r="AO87" s="3"/>
     </row>
     <row r="88" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
@@ -13086,8 +13086,8 @@
       <c r="AM88" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="AN88" s="4"/>
-      <c r="AO88" s="4"/>
+      <c r="AN88" s="3"/>
+      <c r="AO88" s="3"/>
     </row>
     <row r="89" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
@@ -13207,8 +13207,8 @@
       <c r="AM89" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="AN89" s="4"/>
-      <c r="AO89" s="4"/>
+      <c r="AN89" s="3"/>
+      <c r="AO89" s="3"/>
     </row>
     <row r="90" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
@@ -13328,7 +13328,7 @@
       <c r="AM90" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="AN90" s="4"/>
+      <c r="AN90" s="3"/>
       <c r="AO90" s="1"/>
     </row>
     <row r="91" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -13449,7 +13449,7 @@
       <c r="AM91" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AN91" s="4"/>
+      <c r="AN91" s="3"/>
       <c r="AO91" s="1"/>
     </row>
     <row r="92" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -13570,7 +13570,7 @@
       <c r="AM92" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN92" s="4"/>
+      <c r="AN92" s="3"/>
       <c r="AO92" s="1"/>
     </row>
     <row r="93" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -13691,7 +13691,7 @@
       <c r="AM93" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AN93" s="4"/>
+      <c r="AN93" s="3"/>
       <c r="AO93" s="1"/>
     </row>
     <row r="94" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -13812,7 +13812,7 @@
       <c r="AM94" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AN94" s="4"/>
+      <c r="AN94" s="3"/>
       <c r="AO94" s="1"/>
     </row>
     <row r="95" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -13933,7 +13933,7 @@
       <c r="AM95" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN95" s="4"/>
+      <c r="AN95" s="3"/>
       <c r="AO95" s="1"/>
     </row>
     <row r="96" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -14054,7 +14054,7 @@
       <c r="AM96" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AN96" s="4"/>
+      <c r="AN96" s="3"/>
       <c r="AO96" s="1"/>
     </row>
     <row r="97" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -14175,8 +14175,8 @@
       <c r="AM97" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AN97" s="4"/>
-      <c r="AO97" s="4"/>
+      <c r="AN97" s="3"/>
+      <c r="AO97" s="3"/>
     </row>
     <row r="98" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
@@ -14296,8 +14296,8 @@
       <c r="AM98" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AN98" s="4"/>
-      <c r="AO98" s="4"/>
+      <c r="AN98" s="3"/>
+      <c r="AO98" s="3"/>
     </row>
     <row r="99" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
@@ -14417,8 +14417,8 @@
       <c r="AM99" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AN99" s="4"/>
-      <c r="AO99" s="4"/>
+      <c r="AN99" s="3"/>
+      <c r="AO99" s="3"/>
     </row>
     <row r="100" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
@@ -14538,7 +14538,7 @@
       <c r="AM100" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN100" s="4"/>
+      <c r="AN100" s="3"/>
       <c r="AO100" s="1"/>
     </row>
     <row r="101" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -14659,7 +14659,7 @@
       <c r="AM101" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN101" s="4"/>
+      <c r="AN101" s="3"/>
       <c r="AO101" s="1"/>
     </row>
     <row r="102" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -14780,7 +14780,7 @@
       <c r="AM102" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AN102" s="4"/>
+      <c r="AN102" s="3"/>
       <c r="AO102" s="1"/>
     </row>
     <row r="103" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -14901,7 +14901,7 @@
       <c r="AM103" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AN103" s="4"/>
+      <c r="AN103" s="3"/>
       <c r="AO103" s="1"/>
     </row>
     <row r="104" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -15022,8 +15022,8 @@
       <c r="AM104" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AN104" s="4"/>
-      <c r="AO104" s="4"/>
+      <c r="AN104" s="3"/>
+      <c r="AO104" s="3"/>
     </row>
     <row r="105" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
@@ -15143,8 +15143,8 @@
       <c r="AM105" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AN105" s="4"/>
-      <c r="AO105" s="4"/>
+      <c r="AN105" s="3"/>
+      <c r="AO105" s="3"/>
     </row>
     <row r="106" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
@@ -15264,7 +15264,7 @@
       <c r="AM106" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AN106" s="4"/>
+      <c r="AN106" s="3"/>
       <c r="AO106" s="1"/>
     </row>
     <row r="107" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -15385,8 +15385,8 @@
       <c r="AM107" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="AN107" s="4"/>
-      <c r="AO107" s="4"/>
+      <c r="AN107" s="3"/>
+      <c r="AO107" s="3"/>
     </row>
     <row r="108" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
@@ -15506,8 +15506,8 @@
       <c r="AM108" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AN108" s="4"/>
-      <c r="AO108" s="4"/>
+      <c r="AN108" s="3"/>
+      <c r="AO108" s="3"/>
     </row>
     <row r="109" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
@@ -15627,7 +15627,7 @@
       <c r="AM109" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="AN109" s="4"/>
+      <c r="AN109" s="3"/>
       <c r="AO109" s="1"/>
     </row>
     <row r="110" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -15748,8 +15748,8 @@
       <c r="AM110" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AN110" s="4"/>
-      <c r="AO110" s="4"/>
+      <c r="AN110" s="3"/>
+      <c r="AO110" s="3"/>
     </row>
     <row r="111" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
@@ -15869,8 +15869,8 @@
       <c r="AM111" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="AN111" s="4"/>
-      <c r="AO111" s="4"/>
+      <c r="AN111" s="3"/>
+      <c r="AO111" s="3"/>
     </row>
     <row r="112" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
@@ -15990,8 +15990,8 @@
       <c r="AM112" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="AN112" s="4"/>
-      <c r="AO112" s="4"/>
+      <c r="AN112" s="3"/>
+      <c r="AO112" s="3"/>
     </row>
     <row r="113" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
@@ -16111,7 +16111,7 @@
       <c r="AM113" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="AN113" s="4"/>
+      <c r="AN113" s="3"/>
       <c r="AO113" s="1"/>
     </row>
     <row r="114" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16232,7 +16232,7 @@
       <c r="AM114" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN114" s="4"/>
+      <c r="AN114" s="3"/>
       <c r="AO114" s="1"/>
     </row>
     <row r="115" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16353,7 +16353,7 @@
       <c r="AM115" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN115" s="4"/>
+      <c r="AN115" s="3"/>
       <c r="AO115" s="1"/>
     </row>
     <row r="116" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16474,7 +16474,7 @@
       <c r="AM116" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="AN116" s="4"/>
+      <c r="AN116" s="3"/>
       <c r="AO116" s="1"/>
     </row>
     <row r="117" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16595,7 +16595,7 @@
       <c r="AM117" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AN117" s="4"/>
+      <c r="AN117" s="3"/>
       <c r="AO117" s="1"/>
     </row>
     <row r="118" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16716,7 +16716,7 @@
       <c r="AM118" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="AN118" s="4"/>
+      <c r="AN118" s="3"/>
       <c r="AO118" s="1"/>
     </row>
     <row r="119" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16837,7 +16837,7 @@
       <c r="AM119" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="AN119" s="4"/>
+      <c r="AN119" s="3"/>
       <c r="AO119" s="1"/>
     </row>
     <row r="120" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16958,7 +16958,7 @@
       <c r="AM120" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN120" s="4"/>
+      <c r="AN120" s="3"/>
       <c r="AO120" s="1"/>
     </row>
     <row r="121" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -17079,7 +17079,7 @@
       <c r="AM121" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="AN121" s="4"/>
+      <c r="AN121" s="3"/>
       <c r="AO121" s="1"/>
     </row>
     <row r="122" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -17200,7 +17200,7 @@
       <c r="AM122" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="AN122" s="4"/>
+      <c r="AN122" s="3"/>
       <c r="AO122" s="1"/>
     </row>
     <row r="123" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -17321,7 +17321,7 @@
       <c r="AM123" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AN123" s="4"/>
+      <c r="AN123" s="3"/>
       <c r="AO123" s="1"/>
     </row>
     <row r="124" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -17442,8 +17442,8 @@
       <c r="AM124" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="AN124" s="4"/>
-      <c r="AO124" s="4"/>
+      <c r="AN124" s="3"/>
+      <c r="AO124" s="3"/>
     </row>
     <row r="125" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
@@ -17563,7 +17563,7 @@
       <c r="AM125" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AN125" s="4"/>
+      <c r="AN125" s="3"/>
       <c r="AO125" s="1"/>
     </row>
     <row r="126" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -17684,8 +17684,8 @@
       <c r="AM126" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="AN126" s="4"/>
-      <c r="AO126" s="4"/>
+      <c r="AN126" s="3"/>
+      <c r="AO126" s="3"/>
     </row>
     <row r="127" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
@@ -17805,7 +17805,7 @@
       <c r="AM127" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="AN127" s="4"/>
+      <c r="AN127" s="3"/>
       <c r="AO127" s="1"/>
     </row>
     <row r="128" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -17926,7 +17926,7 @@
       <c r="AM128" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN128" s="4"/>
+      <c r="AN128" s="3"/>
       <c r="AO128" s="1"/>
     </row>
     <row r="129" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -18047,8 +18047,8 @@
       <c r="AM129" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="AN129" s="4"/>
-      <c r="AO129" s="4"/>
+      <c r="AN129" s="3"/>
+      <c r="AO129" s="3"/>
     </row>
     <row r="130" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
@@ -18168,7 +18168,7 @@
       <c r="AM130" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN130" s="4"/>
+      <c r="AN130" s="3"/>
       <c r="AO130" s="1"/>
     </row>
     <row r="131" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -18289,7 +18289,7 @@
       <c r="AM131" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="AN131" s="4"/>
+      <c r="AN131" s="3"/>
       <c r="AO131" s="1"/>
     </row>
     <row r="132" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -18410,7 +18410,7 @@
       <c r="AM132" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AN132" s="4"/>
+      <c r="AN132" s="3"/>
       <c r="AO132" s="1"/>
     </row>
     <row r="133" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -18531,7 +18531,7 @@
       <c r="AM133" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN133" s="4"/>
+      <c r="AN133" s="3"/>
       <c r="AO133" s="1"/>
     </row>
     <row r="134" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -18652,8 +18652,8 @@
       <c r="AM134" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="AN134" s="4"/>
-      <c r="AO134" s="4"/>
+      <c r="AN134" s="3"/>
+      <c r="AO134" s="3"/>
     </row>
     <row r="135" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
@@ -18773,8 +18773,8 @@
       <c r="AM135" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="AN135" s="4"/>
-      <c r="AO135" s="4"/>
+      <c r="AN135" s="3"/>
+      <c r="AO135" s="3"/>
     </row>
     <row r="136" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
@@ -18894,8 +18894,8 @@
       <c r="AM136" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="AN136" s="4"/>
-      <c r="AO136" s="4"/>
+      <c r="AN136" s="3"/>
+      <c r="AO136" s="3"/>
     </row>
     <row r="137" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
@@ -19015,7 +19015,7 @@
       <c r="AM137" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AN137" s="4"/>
+      <c r="AN137" s="3"/>
       <c r="AO137" s="1"/>
     </row>
     <row r="138" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -19136,8 +19136,8 @@
       <c r="AM138" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="AN138" s="4"/>
-      <c r="AO138" s="4"/>
+      <c r="AN138" s="3"/>
+      <c r="AO138" s="3"/>
     </row>
     <row r="139" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
@@ -19257,8 +19257,8 @@
       <c r="AM139" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="AN139" s="4"/>
-      <c r="AO139" s="4"/>
+      <c r="AN139" s="3"/>
+      <c r="AO139" s="3"/>
     </row>
     <row r="140" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
@@ -19378,7 +19378,7 @@
       <c r="AM140" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AN140" s="4"/>
+      <c r="AN140" s="3"/>
       <c r="AO140" s="1"/>
     </row>
     <row r="141" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -19499,7 +19499,7 @@
       <c r="AM141" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AN141" s="4"/>
+      <c r="AN141" s="3"/>
       <c r="AO141" s="1"/>
     </row>
     <row r="142" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -19620,7 +19620,7 @@
       <c r="AM142" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AN142" s="4"/>
+      <c r="AN142" s="3"/>
       <c r="AO142" s="1"/>
     </row>
     <row r="143" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -19741,8 +19741,8 @@
       <c r="AM143" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="AN143" s="4"/>
-      <c r="AO143" s="4"/>
+      <c r="AN143" s="3"/>
+      <c r="AO143" s="3"/>
     </row>
     <row r="144" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
@@ -19862,8 +19862,8 @@
       <c r="AM144" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="AN144" s="4"/>
-      <c r="AO144" s="4"/>
+      <c r="AN144" s="3"/>
+      <c r="AO144" s="3"/>
     </row>
     <row r="145" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
@@ -19983,7 +19983,7 @@
       <c r="AM145" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN145" s="4"/>
+      <c r="AN145" s="3"/>
       <c r="AO145" s="1"/>
     </row>
     <row r="146" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -20104,7 +20104,7 @@
       <c r="AM146" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AN146" s="4"/>
+      <c r="AN146" s="3"/>
       <c r="AO146" s="1"/>
     </row>
     <row r="147" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -20225,7 +20225,7 @@
       <c r="AM147" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN147" s="4"/>
+      <c r="AN147" s="3"/>
       <c r="AO147" s="1"/>
     </row>
     <row r="148" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -20346,8 +20346,8 @@
       <c r="AM148" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="AN148" s="4"/>
-      <c r="AO148" s="4"/>
+      <c r="AN148" s="3"/>
+      <c r="AO148" s="3"/>
     </row>
     <row r="149" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
@@ -20467,8 +20467,8 @@
       <c r="AM149" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="AN149" s="4"/>
-      <c r="AO149" s="4"/>
+      <c r="AN149" s="3"/>
+      <c r="AO149" s="3"/>
     </row>
     <row r="150" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
@@ -20588,7 +20588,7 @@
       <c r="AM150" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN150" s="4"/>
+      <c r="AN150" s="3"/>
       <c r="AO150" s="1"/>
     </row>
     <row r="151" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -20709,8 +20709,8 @@
       <c r="AM151" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="AN151" s="4"/>
-      <c r="AO151" s="4"/>
+      <c r="AN151" s="3"/>
+      <c r="AO151" s="3"/>
     </row>
     <row r="152" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
@@ -20830,7 +20830,7 @@
       <c r="AM152" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AN152" s="4"/>
+      <c r="AN152" s="3"/>
       <c r="AO152" s="1"/>
     </row>
     <row r="153" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -20951,8 +20951,8 @@
       <c r="AM153" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="AN153" s="4"/>
-      <c r="AO153" s="4"/>
+      <c r="AN153" s="3"/>
+      <c r="AO153" s="3"/>
     </row>
     <row r="154" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
@@ -21072,8 +21072,8 @@
       <c r="AM154" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AN154" s="4"/>
-      <c r="AO154" s="4"/>
+      <c r="AN154" s="3"/>
+      <c r="AO154" s="3"/>
     </row>
     <row r="155" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
@@ -21193,8 +21193,8 @@
       <c r="AM155" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="AN155" s="4"/>
-      <c r="AO155" s="4"/>
+      <c r="AN155" s="3"/>
+      <c r="AO155" s="3"/>
     </row>
     <row r="156" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
@@ -21314,7 +21314,7 @@
       <c r="AM156" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN156" s="4"/>
+      <c r="AN156" s="3"/>
       <c r="AO156" s="1"/>
     </row>
     <row r="157" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -21435,7 +21435,7 @@
       <c r="AM157" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN157" s="4"/>
+      <c r="AN157" s="3"/>
       <c r="AO157" s="1"/>
     </row>
     <row r="158" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -21556,8 +21556,8 @@
       <c r="AM158" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="AN158" s="4"/>
-      <c r="AO158" s="4"/>
+      <c r="AN158" s="3"/>
+      <c r="AO158" s="3"/>
     </row>
     <row r="159" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
@@ -21677,8 +21677,8 @@
       <c r="AM159" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="AN159" s="4"/>
-      <c r="AO159" s="4"/>
+      <c r="AN159" s="3"/>
+      <c r="AO159" s="3"/>
     </row>
     <row r="160" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
@@ -21798,7 +21798,7 @@
       <c r="AM160" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AN160" s="4"/>
+      <c r="AN160" s="3"/>
       <c r="AO160" s="1"/>
     </row>
     <row r="161" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -21919,7 +21919,7 @@
       <c r="AM161" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN161" s="4"/>
+      <c r="AN161" s="3"/>
       <c r="AO161" s="1"/>
     </row>
     <row r="162" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -22040,8 +22040,8 @@
       <c r="AM162" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="AN162" s="4"/>
-      <c r="AO162" s="4"/>
+      <c r="AN162" s="3"/>
+      <c r="AO162" s="3"/>
     </row>
     <row r="163" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
@@ -22161,8 +22161,8 @@
       <c r="AM163" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="AN163" s="4"/>
-      <c r="AO163" s="4"/>
+      <c r="AN163" s="3"/>
+      <c r="AO163" s="3"/>
     </row>
     <row r="164" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
@@ -22282,7 +22282,7 @@
       <c r="AM164" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AN164" s="4"/>
+      <c r="AN164" s="3"/>
       <c r="AO164" s="1"/>
     </row>
     <row r="165" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -22403,7 +22403,7 @@
       <c r="AM165" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="AN165" s="4"/>
+      <c r="AN165" s="3"/>
       <c r="AO165" s="1"/>
     </row>
     <row r="166" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -22524,8 +22524,8 @@
       <c r="AM166" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="AN166" s="4"/>
-      <c r="AO166" s="4"/>
+      <c r="AN166" s="3"/>
+      <c r="AO166" s="3"/>
     </row>
     <row r="167" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
@@ -22645,7 +22645,7 @@
       <c r="AM167" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="AN167" s="4"/>
+      <c r="AN167" s="3"/>
       <c r="AO167" s="1"/>
     </row>
     <row r="168" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -22766,7 +22766,7 @@
       <c r="AM168" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN168" s="4"/>
+      <c r="AN168" s="3"/>
       <c r="AO168" s="1"/>
     </row>
     <row r="169" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -22887,7 +22887,7 @@
       <c r="AM169" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AN169" s="4"/>
+      <c r="AN169" s="3"/>
       <c r="AO169" s="1"/>
     </row>
     <row r="170" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -23008,7 +23008,7 @@
       <c r="AM170" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN170" s="4"/>
+      <c r="AN170" s="3"/>
       <c r="AO170" s="1"/>
     </row>
     <row r="171" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -23129,7 +23129,7 @@
       <c r="AM171" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="AN171" s="4"/>
+      <c r="AN171" s="3"/>
       <c r="AO171" s="1"/>
     </row>
     <row r="172" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -23250,7 +23250,7 @@
       <c r="AM172" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AN172" s="4"/>
+      <c r="AN172" s="3"/>
       <c r="AO172" s="1"/>
     </row>
     <row r="173" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -23371,8 +23371,8 @@
       <c r="AM173" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="AN173" s="4"/>
-      <c r="AO173" s="4"/>
+      <c r="AN173" s="3"/>
+      <c r="AO173" s="3"/>
     </row>
     <row r="174" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
@@ -23492,7 +23492,7 @@
       <c r="AM174" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AN174" s="4"/>
+      <c r="AN174" s="3"/>
       <c r="AO174" s="1"/>
     </row>
     <row r="175" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -23613,7 +23613,7 @@
       <c r="AM175" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN175" s="4"/>
+      <c r="AN175" s="3"/>
       <c r="AO175" s="1"/>
     </row>
     <row r="176" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -23734,8 +23734,8 @@
       <c r="AM176" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="AN176" s="4"/>
-      <c r="AO176" s="4"/>
+      <c r="AN176" s="3"/>
+      <c r="AO176" s="3"/>
     </row>
     <row r="177" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
@@ -23855,8 +23855,8 @@
       <c r="AM177" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="AN177" s="4"/>
-      <c r="AO177" s="4"/>
+      <c r="AN177" s="3"/>
+      <c r="AO177" s="3"/>
     </row>
     <row r="178" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
@@ -23976,7 +23976,7 @@
       <c r="AM178" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN178" s="4"/>
+      <c r="AN178" s="3"/>
       <c r="AO178" s="1"/>
     </row>
     <row r="179" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -24097,7 +24097,7 @@
       <c r="AM179" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="AN179" s="4"/>
+      <c r="AN179" s="3"/>
       <c r="AO179" s="1"/>
     </row>
     <row r="180" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -24218,7 +24218,7 @@
       <c r="AM180" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="AN180" s="4"/>
+      <c r="AN180" s="3"/>
       <c r="AO180" s="1"/>
     </row>
     <row r="181" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -24339,7 +24339,7 @@
       <c r="AM181" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="AN181" s="4"/>
+      <c r="AN181" s="3"/>
       <c r="AO181" s="1"/>
     </row>
     <row r="182" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -24460,8 +24460,8 @@
       <c r="AM182" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="AN182" s="4"/>
-      <c r="AO182" s="4"/>
+      <c r="AN182" s="3"/>
+      <c r="AO182" s="3"/>
     </row>
     <row r="183" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
@@ -24581,7 +24581,7 @@
       <c r="AM183" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="AN183" s="4"/>
+      <c r="AN183" s="3"/>
       <c r="AO183" s="1"/>
     </row>
     <row r="184" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -24702,8 +24702,8 @@
       <c r="AM184" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="AN184" s="4"/>
-      <c r="AO184" s="4"/>
+      <c r="AN184" s="3"/>
+      <c r="AO184" s="3"/>
     </row>
     <row r="185" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
@@ -24823,8 +24823,8 @@
       <c r="AM185" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="AN185" s="4"/>
-      <c r="AO185" s="4"/>
+      <c r="AN185" s="3"/>
+      <c r="AO185" s="3"/>
     </row>
     <row r="186" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
@@ -24944,7 +24944,7 @@
       <c r="AM186" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN186" s="4"/>
+      <c r="AN186" s="3"/>
       <c r="AO186" s="1"/>
     </row>
     <row r="187" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -25065,7 +25065,7 @@
       <c r="AM187" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN187" s="4"/>
+      <c r="AN187" s="3"/>
       <c r="AO187" s="1"/>
     </row>
     <row r="188" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -25186,8 +25186,8 @@
       <c r="AM188" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="AN188" s="4"/>
-      <c r="AO188" s="4"/>
+      <c r="AN188" s="3"/>
+      <c r="AO188" s="3"/>
     </row>
     <row r="189" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
@@ -25307,8 +25307,8 @@
       <c r="AM189" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AN189" s="4"/>
-      <c r="AO189" s="4"/>
+      <c r="AN189" s="3"/>
+      <c r="AO189" s="3"/>
     </row>
     <row r="190" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
@@ -25428,7 +25428,7 @@
       <c r="AM190" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AN190" s="4"/>
+      <c r="AN190" s="3"/>
       <c r="AO190" s="1"/>
     </row>
     <row r="191" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -25549,7 +25549,7 @@
       <c r="AM191" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AN191" s="4"/>
+      <c r="AN191" s="3"/>
       <c r="AO191" s="1"/>
     </row>
     <row r="192" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -25670,8 +25670,8 @@
       <c r="AM192" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="AN192" s="4"/>
-      <c r="AO192" s="4"/>
+      <c r="AN192" s="3"/>
+      <c r="AO192" s="3"/>
     </row>
     <row r="193" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
@@ -25791,8 +25791,8 @@
       <c r="AM193" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="AN193" s="4"/>
-      <c r="AO193" s="4"/>
+      <c r="AN193" s="3"/>
+      <c r="AO193" s="3"/>
     </row>
     <row r="194" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
@@ -25912,7 +25912,7 @@
       <c r="AM194" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN194" s="4"/>
+      <c r="AN194" s="3"/>
       <c r="AO194" s="1"/>
     </row>
     <row r="195" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -26033,7 +26033,7 @@
       <c r="AM195" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN195" s="4"/>
+      <c r="AN195" s="3"/>
       <c r="AO195" s="1"/>
     </row>
     <row r="196" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -26154,8 +26154,8 @@
       <c r="AM196" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="AN196" s="4"/>
-      <c r="AO196" s="4"/>
+      <c r="AN196" s="3"/>
+      <c r="AO196" s="3"/>
     </row>
     <row r="197" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
@@ -26275,8 +26275,8 @@
       <c r="AM197" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AN197" s="4"/>
-      <c r="AO197" s="4"/>
+      <c r="AN197" s="3"/>
+      <c r="AO197" s="3"/>
     </row>
     <row r="198" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
@@ -26396,7 +26396,7 @@
       <c r="AM198" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="AN198" s="4"/>
+      <c r="AN198" s="3"/>
       <c r="AO198" s="1"/>
     </row>
     <row r="199" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -26517,8 +26517,8 @@
       <c r="AM199" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="AN199" s="4"/>
-      <c r="AO199" s="4"/>
+      <c r="AN199" s="3"/>
+      <c r="AO199" s="3"/>
     </row>
     <row r="200" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
@@ -26638,8 +26638,8 @@
       <c r="AM200" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="AN200" s="4"/>
-      <c r="AO200" s="4"/>
+      <c r="AN200" s="3"/>
+      <c r="AO200" s="3"/>
     </row>
     <row r="201" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
@@ -26759,8 +26759,8 @@
       <c r="AM201" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AN201" s="4"/>
-      <c r="AO201" s="4"/>
+      <c r="AN201" s="3"/>
+      <c r="AO201" s="3"/>
     </row>
     <row r="202" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
@@ -26880,7 +26880,7 @@
       <c r="AM202" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AN202" s="4"/>
+      <c r="AN202" s="3"/>
       <c r="AO202" s="1"/>
     </row>
     <row r="203" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -27001,8 +27001,8 @@
       <c r="AM203" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="AN203" s="4"/>
-      <c r="AO203" s="4"/>
+      <c r="AN203" s="3"/>
+      <c r="AO203" s="3"/>
     </row>
     <row r="204" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
@@ -27122,7 +27122,7 @@
       <c r="AM204" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN204" s="4"/>
+      <c r="AN204" s="3"/>
       <c r="AO204" s="1"/>
     </row>
     <row r="205" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -27243,7 +27243,7 @@
       <c r="AM205" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="AN205" s="4"/>
+      <c r="AN205" s="3"/>
       <c r="AO205" s="1"/>
     </row>
     <row r="206" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -27364,7 +27364,7 @@
       <c r="AM206" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="AN206" s="4"/>
+      <c r="AN206" s="3"/>
       <c r="AO206" s="1"/>
     </row>
     <row r="207" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -27485,7 +27485,7 @@
       <c r="AM207" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN207" s="4"/>
+      <c r="AN207" s="3"/>
       <c r="AO207" s="1"/>
     </row>
     <row r="208" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -27606,7 +27606,7 @@
       <c r="AM208" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AN208" s="4"/>
+      <c r="AN208" s="3"/>
       <c r="AO208" s="1"/>
     </row>
     <row r="209" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -27727,8 +27727,8 @@
       <c r="AM209" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="AN209" s="4"/>
-      <c r="AO209" s="4"/>
+      <c r="AN209" s="3"/>
+      <c r="AO209" s="3"/>
     </row>
     <row r="210" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
@@ -27848,7 +27848,7 @@
       <c r="AM210" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AN210" s="4"/>
+      <c r="AN210" s="3"/>
       <c r="AO210" s="1"/>
     </row>
     <row r="211" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -27969,7 +27969,7 @@
       <c r="AM211" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN211" s="4"/>
+      <c r="AN211" s="3"/>
       <c r="AO211" s="1"/>
     </row>
     <row r="212" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -28090,8 +28090,8 @@
       <c r="AM212" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="AN212" s="4"/>
-      <c r="AO212" s="4"/>
+      <c r="AN212" s="3"/>
+      <c r="AO212" s="3"/>
     </row>
     <row r="213" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
@@ -28211,7 +28211,7 @@
       <c r="AM213" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN213" s="4"/>
+      <c r="AN213" s="3"/>
       <c r="AO213" s="1"/>
     </row>
     <row r="214" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -28332,8 +28332,8 @@
       <c r="AM214" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AN214" s="4"/>
-      <c r="AO214" s="4"/>
+      <c r="AN214" s="3"/>
+      <c r="AO214" s="3"/>
     </row>
     <row r="215" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
@@ -28453,7 +28453,7 @@
       <c r="AM215" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="AN215" s="4"/>
+      <c r="AN215" s="3"/>
       <c r="AO215" s="1"/>
     </row>
     <row r="216" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -28574,8 +28574,8 @@
       <c r="AM216" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="AN216" s="4"/>
-      <c r="AO216" s="4"/>
+      <c r="AN216" s="3"/>
+      <c r="AO216" s="3"/>
     </row>
     <row r="217" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
@@ -28695,7 +28695,7 @@
       <c r="AM217" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="AN217" s="4"/>
+      <c r="AN217" s="3"/>
       <c r="AO217" s="1"/>
     </row>
     <row r="218" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -28816,7 +28816,7 @@
       <c r="AM218" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="AN218" s="4"/>
+      <c r="AN218" s="3"/>
       <c r="AO218" s="1"/>
     </row>
     <row r="219" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -28937,7 +28937,7 @@
       <c r="AM219" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN219" s="4"/>
+      <c r="AN219" s="3"/>
       <c r="AO219" s="1"/>
     </row>
     <row r="220" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -29058,7 +29058,7 @@
       <c r="AM220" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="AN220" s="4"/>
+      <c r="AN220" s="3"/>
       <c r="AO220" s="1"/>
     </row>
     <row r="221" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -29179,8 +29179,8 @@
       <c r="AM221" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="AN221" s="4"/>
-      <c r="AO221" s="4"/>
+      <c r="AN221" s="3"/>
+      <c r="AO221" s="3"/>
     </row>
     <row r="222" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
@@ -29300,8 +29300,8 @@
       <c r="AM222" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="AN222" s="4"/>
-      <c r="AO222" s="4"/>
+      <c r="AN222" s="3"/>
+      <c r="AO222" s="3"/>
     </row>
     <row r="223" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
@@ -29421,8 +29421,8 @@
       <c r="AM223" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="AN223" s="4"/>
-      <c r="AO223" s="4"/>
+      <c r="AN223" s="3"/>
+      <c r="AO223" s="3"/>
     </row>
     <row r="224" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
@@ -29542,7 +29542,7 @@
       <c r="AM224" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AN224" s="4"/>
+      <c r="AN224" s="3"/>
       <c r="AO224" s="1"/>
     </row>
     <row r="225" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -29663,7 +29663,7 @@
       <c r="AM225" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="AN225" s="4"/>
+      <c r="AN225" s="3"/>
       <c r="AO225" s="1"/>
     </row>
     <row r="226" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -29784,7 +29784,7 @@
       <c r="AM226" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AN226" s="4"/>
+      <c r="AN226" s="3"/>
       <c r="AO226" s="1"/>
     </row>
     <row r="227" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -29905,7 +29905,7 @@
       <c r="AM227" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN227" s="4"/>
+      <c r="AN227" s="3"/>
       <c r="AO227" s="1"/>
     </row>
     <row r="228" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -30026,7 +30026,7 @@
       <c r="AM228" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN228" s="4"/>
+      <c r="AN228" s="3"/>
       <c r="AO228" s="1"/>
     </row>
     <row r="229" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -30147,8 +30147,8 @@
       <c r="AM229" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="AN229" s="4"/>
-      <c r="AO229" s="4"/>
+      <c r="AN229" s="3"/>
+      <c r="AO229" s="3"/>
     </row>
     <row r="230" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
@@ -30268,8 +30268,8 @@
       <c r="AM230" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="AN230" s="4"/>
-      <c r="AO230" s="4"/>
+      <c r="AN230" s="3"/>
+      <c r="AO230" s="3"/>
     </row>
     <row r="231" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
@@ -30389,7 +30389,7 @@
       <c r="AM231" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN231" s="4"/>
+      <c r="AN231" s="3"/>
       <c r="AO231" s="1"/>
     </row>
     <row r="232" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -30510,7 +30510,7 @@
       <c r="AM232" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN232" s="4"/>
+      <c r="AN232" s="3"/>
       <c r="AO232" s="1"/>
     </row>
     <row r="233" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -30631,7 +30631,7 @@
       <c r="AM233" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AN233" s="4"/>
+      <c r="AN233" s="3"/>
       <c r="AO233" s="1"/>
     </row>
     <row r="234" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -30752,7 +30752,7 @@
       <c r="AM234" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AN234" s="4"/>
+      <c r="AN234" s="3"/>
       <c r="AO234" s="1"/>
     </row>
     <row r="235" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -30873,8 +30873,8 @@
       <c r="AM235" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AN235" s="4"/>
-      <c r="AO235" s="4"/>
+      <c r="AN235" s="3"/>
+      <c r="AO235" s="3"/>
     </row>
     <row r="236" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
@@ -30994,8 +30994,8 @@
       <c r="AM236" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="AN236" s="4"/>
-      <c r="AO236" s="4"/>
+      <c r="AN236" s="3"/>
+      <c r="AO236" s="3"/>
     </row>
     <row r="237" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
@@ -31115,8 +31115,8 @@
       <c r="AM237" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="AN237" s="4"/>
-      <c r="AO237" s="4"/>
+      <c r="AN237" s="3"/>
+      <c r="AO237" s="3"/>
     </row>
     <row r="238" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
@@ -31236,8 +31236,8 @@
       <c r="AM238" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="AN238" s="4"/>
-      <c r="AO238" s="4"/>
+      <c r="AN238" s="3"/>
+      <c r="AO238" s="3"/>
     </row>
     <row r="239" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
@@ -31357,7 +31357,7 @@
       <c r="AM239" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN239" s="4"/>
+      <c r="AN239" s="3"/>
       <c r="AO239" s="1"/>
     </row>
     <row r="240" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -31478,8 +31478,8 @@
       <c r="AM240" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="AN240" s="4"/>
-      <c r="AO240" s="4"/>
+      <c r="AN240" s="3"/>
+      <c r="AO240" s="3"/>
     </row>
     <row r="241" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
@@ -31599,7 +31599,7 @@
       <c r="AM241" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN241" s="4"/>
+      <c r="AN241" s="3"/>
       <c r="AO241" s="1"/>
     </row>
     <row r="242" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -31720,7 +31720,7 @@
       <c r="AM242" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AN242" s="4"/>
+      <c r="AN242" s="3"/>
       <c r="AO242" s="1"/>
     </row>
     <row r="243" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -31841,8 +31841,8 @@
       <c r="AM243" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="AN243" s="4"/>
-      <c r="AO243" s="4"/>
+      <c r="AN243" s="3"/>
+      <c r="AO243" s="3"/>
     </row>
     <row r="244" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
@@ -31962,8 +31962,8 @@
       <c r="AM244" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AN244" s="4"/>
-      <c r="AO244" s="4"/>
+      <c r="AN244" s="3"/>
+      <c r="AO244" s="3"/>
     </row>
     <row r="245" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
@@ -32083,8 +32083,8 @@
       <c r="AM245" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="AN245" s="4"/>
-      <c r="AO245" s="4"/>
+      <c r="AN245" s="3"/>
+      <c r="AO245" s="3"/>
     </row>
     <row r="246" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
@@ -32204,7 +32204,7 @@
       <c r="AM246" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="AN246" s="4"/>
+      <c r="AN246" s="3"/>
       <c r="AO246" s="1"/>
     </row>
     <row r="247" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -32325,7 +32325,7 @@
       <c r="AM247" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN247" s="4"/>
+      <c r="AN247" s="3"/>
       <c r="AO247" s="1"/>
     </row>
     <row r="248" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -32446,7 +32446,7 @@
       <c r="AM248" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AN248" s="4"/>
+      <c r="AN248" s="3"/>
       <c r="AO248" s="1"/>
     </row>
     <row r="249" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -32567,8 +32567,8 @@
       <c r="AM249" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="AN249" s="4"/>
-      <c r="AO249" s="4"/>
+      <c r="AN249" s="3"/>
+      <c r="AO249" s="3"/>
     </row>
     <row r="250" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
@@ -32688,8 +32688,8 @@
       <c r="AM250" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="AN250" s="4"/>
-      <c r="AO250" s="4"/>
+      <c r="AN250" s="3"/>
+      <c r="AO250" s="3"/>
     </row>
     <row r="251" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
@@ -32809,7 +32809,7 @@
       <c r="AM251" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN251" s="4"/>
+      <c r="AN251" s="3"/>
       <c r="AO251" s="1"/>
     </row>
     <row r="252" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -32930,8 +32930,8 @@
       <c r="AM252" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AN252" s="4"/>
-      <c r="AO252" s="4"/>
+      <c r="AN252" s="3"/>
+      <c r="AO252" s="3"/>
     </row>
     <row r="253" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
@@ -33051,8 +33051,8 @@
       <c r="AM253" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AN253" s="4"/>
-      <c r="AO253" s="4"/>
+      <c r="AN253" s="3"/>
+      <c r="AO253" s="3"/>
     </row>
     <row r="254" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
@@ -33172,8 +33172,8 @@
       <c r="AM254" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="AN254" s="4"/>
-      <c r="AO254" s="4"/>
+      <c r="AN254" s="3"/>
+      <c r="AO254" s="3"/>
     </row>
     <row r="255" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
@@ -33293,8 +33293,8 @@
       <c r="AM255" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="AN255" s="4"/>
-      <c r="AO255" s="4"/>
+      <c r="AN255" s="3"/>
+      <c r="AO255" s="3"/>
     </row>
     <row r="256" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
@@ -33414,7 +33414,7 @@
       <c r="AM256" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN256" s="4"/>
+      <c r="AN256" s="3"/>
       <c r="AO256" s="1"/>
     </row>
     <row r="257" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -33535,7 +33535,7 @@
       <c r="AM257" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN257" s="4"/>
+      <c r="AN257" s="3"/>
       <c r="AO257" s="1"/>
     </row>
     <row r="258" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -33656,7 +33656,7 @@
       <c r="AM258" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AN258" s="4"/>
+      <c r="AN258" s="3"/>
       <c r="AO258" s="1"/>
     </row>
     <row r="259" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -33777,8 +33777,8 @@
       <c r="AM259" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AN259" s="4"/>
-      <c r="AO259" s="4"/>
+      <c r="AN259" s="3"/>
+      <c r="AO259" s="3"/>
     </row>
     <row r="260" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
@@ -33898,8 +33898,8 @@
       <c r="AM260" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AN260" s="4"/>
-      <c r="AO260" s="4"/>
+      <c r="AN260" s="3"/>
+      <c r="AO260" s="3"/>
     </row>
     <row r="261" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
@@ -34019,7 +34019,7 @@
       <c r="AM261" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN261" s="4"/>
+      <c r="AN261" s="3"/>
       <c r="AO261" s="1"/>
     </row>
     <row r="262" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -34140,7 +34140,7 @@
       <c r="AM262" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AN262" s="4"/>
+      <c r="AN262" s="3"/>
       <c r="AO262" s="1"/>
     </row>
     <row r="263" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -34261,8 +34261,8 @@
       <c r="AM263" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="AN263" s="4"/>
-      <c r="AO263" s="4"/>
+      <c r="AN263" s="3"/>
+      <c r="AO263" s="3"/>
     </row>
     <row r="264" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
@@ -34382,8 +34382,8 @@
       <c r="AM264" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="AN264" s="4"/>
-      <c r="AO264" s="4"/>
+      <c r="AN264" s="3"/>
+      <c r="AO264" s="3"/>
     </row>
     <row r="265" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
@@ -34503,7 +34503,7 @@
       <c r="AM265" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN265" s="4"/>
+      <c r="AN265" s="3"/>
       <c r="AO265" s="1"/>
     </row>
     <row r="266" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -34624,7 +34624,7 @@
       <c r="AM266" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="AN266" s="4"/>
+      <c r="AN266" s="3"/>
       <c r="AO266" s="1"/>
     </row>
     <row r="267" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -34745,8 +34745,8 @@
       <c r="AM267" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="AN267" s="4"/>
-      <c r="AO267" s="4"/>
+      <c r="AN267" s="3"/>
+      <c r="AO267" s="3"/>
     </row>
     <row r="268" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
@@ -34866,7 +34866,7 @@
       <c r="AM268" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN268" s="4"/>
+      <c r="AN268" s="3"/>
       <c r="AO268" s="1"/>
     </row>
     <row r="269" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -34987,8 +34987,8 @@
       <c r="AM269" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="AN269" s="4"/>
-      <c r="AO269" s="4"/>
+      <c r="AN269" s="3"/>
+      <c r="AO269" s="3"/>
     </row>
     <row r="270" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
@@ -35108,7 +35108,7 @@
       <c r="AM270" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="AN270" s="4"/>
+      <c r="AN270" s="3"/>
       <c r="AO270" s="1"/>
     </row>
     <row r="271" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -35229,7 +35229,7 @@
       <c r="AM271" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AN271" s="4"/>
+      <c r="AN271" s="3"/>
       <c r="AO271" s="1"/>
     </row>
     <row r="272" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -35350,7 +35350,7 @@
       <c r="AM272" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN272" s="4"/>
+      <c r="AN272" s="3"/>
       <c r="AO272" s="1"/>
     </row>
     <row r="273" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -35471,8 +35471,8 @@
       <c r="AM273" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="AN273" s="4"/>
-      <c r="AO273" s="4"/>
+      <c r="AN273" s="3"/>
+      <c r="AO273" s="3"/>
     </row>
     <row r="274" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
@@ -35592,7 +35592,7 @@
       <c r="AM274" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="AN274" s="4"/>
+      <c r="AN274" s="3"/>
       <c r="AO274" s="1"/>
     </row>
     <row r="275" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -35713,7 +35713,7 @@
       <c r="AM275" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AN275" s="4"/>
+      <c r="AN275" s="3"/>
       <c r="AO275" s="1"/>
     </row>
     <row r="276" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -35834,8 +35834,8 @@
       <c r="AM276" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="AN276" s="4"/>
-      <c r="AO276" s="4"/>
+      <c r="AN276" s="3"/>
+      <c r="AO276" s="3"/>
     </row>
     <row r="277" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
@@ -35955,7 +35955,7 @@
       <c r="AM277" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="AN277" s="4"/>
+      <c r="AN277" s="3"/>
       <c r="AO277" s="1"/>
     </row>
     <row r="278" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -36076,7 +36076,7 @@
       <c r="AM278" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AN278" s="4"/>
+      <c r="AN278" s="3"/>
       <c r="AO278" s="1"/>
     </row>
     <row r="279" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -36197,7 +36197,7 @@
       <c r="AM279" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="AN279" s="4"/>
+      <c r="AN279" s="3"/>
       <c r="AO279" s="1"/>
     </row>
     <row r="280" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -36318,8 +36318,8 @@
       <c r="AM280" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AN280" s="4"/>
-      <c r="AO280" s="4"/>
+      <c r="AN280" s="3"/>
+      <c r="AO280" s="3"/>
     </row>
     <row r="281" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
@@ -36439,217 +36439,62 @@
       <c r="AM281" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="AN281" s="4"/>
+      <c r="AN281" s="3"/>
       <c r="AO281" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="281">
-    <mergeCell ref="AM278:AN278"/>
-    <mergeCell ref="AM279:AN279"/>
-    <mergeCell ref="AM280:AO280"/>
-    <mergeCell ref="AM281:AN281"/>
-    <mergeCell ref="AM267:AO267"/>
-    <mergeCell ref="AM268:AN268"/>
-    <mergeCell ref="AM269:AO269"/>
-    <mergeCell ref="AM270:AN270"/>
-    <mergeCell ref="AM271:AN271"/>
-    <mergeCell ref="AM272:AN272"/>
-    <mergeCell ref="AM273:AO273"/>
-    <mergeCell ref="AM262:AN262"/>
-    <mergeCell ref="AM263:AO263"/>
-    <mergeCell ref="AM264:AO264"/>
-    <mergeCell ref="AM265:AN265"/>
-    <mergeCell ref="AM266:AN266"/>
-    <mergeCell ref="AM274:AN274"/>
-    <mergeCell ref="AM275:AN275"/>
-    <mergeCell ref="AM276:AO276"/>
-    <mergeCell ref="AM277:AN277"/>
-    <mergeCell ref="AM253:AO253"/>
-    <mergeCell ref="AM254:AO254"/>
-    <mergeCell ref="AM255:AO255"/>
-    <mergeCell ref="AM256:AN256"/>
-    <mergeCell ref="AM257:AN257"/>
-    <mergeCell ref="AM258:AN258"/>
-    <mergeCell ref="AM259:AO259"/>
-    <mergeCell ref="AM260:AO260"/>
-    <mergeCell ref="AM261:AN261"/>
-    <mergeCell ref="AM223:AO223"/>
-    <mergeCell ref="AM224:AN224"/>
-    <mergeCell ref="AM225:AN225"/>
-    <mergeCell ref="AM226:AN226"/>
-    <mergeCell ref="AM227:AN227"/>
-    <mergeCell ref="AM228:AN228"/>
-    <mergeCell ref="AM229:AO229"/>
-    <mergeCell ref="AM230:AO230"/>
-    <mergeCell ref="AM231:AN231"/>
-    <mergeCell ref="AM214:AO214"/>
-    <mergeCell ref="AM215:AN215"/>
-    <mergeCell ref="AM216:AO216"/>
-    <mergeCell ref="AM217:AN217"/>
-    <mergeCell ref="AM218:AN218"/>
-    <mergeCell ref="AM219:AN219"/>
-    <mergeCell ref="AM220:AN220"/>
-    <mergeCell ref="AM221:AO221"/>
-    <mergeCell ref="AM222:AO222"/>
-    <mergeCell ref="AM205:AN205"/>
-    <mergeCell ref="AM206:AN206"/>
-    <mergeCell ref="AM207:AN207"/>
-    <mergeCell ref="AM208:AN208"/>
-    <mergeCell ref="AM209:AO209"/>
-    <mergeCell ref="AM210:AN210"/>
-    <mergeCell ref="AM211:AN211"/>
-    <mergeCell ref="AM212:AO212"/>
-    <mergeCell ref="AM213:AN213"/>
-    <mergeCell ref="AM139:AO139"/>
-    <mergeCell ref="AM140:AN140"/>
-    <mergeCell ref="AM141:AN141"/>
-    <mergeCell ref="AM142:AN142"/>
-    <mergeCell ref="AM143:AO143"/>
-    <mergeCell ref="AM144:AO144"/>
-    <mergeCell ref="AM145:AN145"/>
-    <mergeCell ref="AM146:AN146"/>
-    <mergeCell ref="AM147:AN147"/>
-    <mergeCell ref="AM130:AN130"/>
-    <mergeCell ref="AM131:AN131"/>
-    <mergeCell ref="AM132:AN132"/>
-    <mergeCell ref="AM133:AN133"/>
-    <mergeCell ref="AM134:AO134"/>
-    <mergeCell ref="AM135:AO135"/>
-    <mergeCell ref="AM136:AO136"/>
-    <mergeCell ref="AM137:AN137"/>
-    <mergeCell ref="AM138:AO138"/>
-    <mergeCell ref="AM121:AN121"/>
-    <mergeCell ref="AM122:AN122"/>
-    <mergeCell ref="AM123:AN123"/>
-    <mergeCell ref="AM124:AO124"/>
-    <mergeCell ref="AM125:AN125"/>
-    <mergeCell ref="AM126:AO126"/>
-    <mergeCell ref="AM127:AN127"/>
-    <mergeCell ref="AM128:AN128"/>
-    <mergeCell ref="AM129:AO129"/>
-    <mergeCell ref="AM112:AO112"/>
-    <mergeCell ref="AM113:AN113"/>
-    <mergeCell ref="AM114:AN114"/>
-    <mergeCell ref="AM115:AN115"/>
-    <mergeCell ref="AM116:AN116"/>
-    <mergeCell ref="AM117:AN117"/>
-    <mergeCell ref="AM118:AN118"/>
-    <mergeCell ref="AM119:AN119"/>
-    <mergeCell ref="AM120:AN120"/>
-    <mergeCell ref="AM103:AN103"/>
-    <mergeCell ref="AM104:AO104"/>
-    <mergeCell ref="AM105:AO105"/>
-    <mergeCell ref="AM106:AN106"/>
-    <mergeCell ref="AM107:AO107"/>
-    <mergeCell ref="AM108:AO108"/>
-    <mergeCell ref="AM109:AN109"/>
-    <mergeCell ref="AM110:AO110"/>
-    <mergeCell ref="AM111:AO111"/>
-    <mergeCell ref="AM94:AN94"/>
-    <mergeCell ref="AM95:AN95"/>
-    <mergeCell ref="AM96:AN96"/>
-    <mergeCell ref="AM97:AO97"/>
-    <mergeCell ref="AM98:AO98"/>
-    <mergeCell ref="AM99:AO99"/>
-    <mergeCell ref="AM100:AN100"/>
-    <mergeCell ref="AM101:AN101"/>
-    <mergeCell ref="AM102:AN102"/>
-    <mergeCell ref="AM85:AO85"/>
-    <mergeCell ref="AM86:AO86"/>
-    <mergeCell ref="AM87:AO87"/>
-    <mergeCell ref="AM88:AO88"/>
-    <mergeCell ref="AM89:AO89"/>
-    <mergeCell ref="AM90:AN90"/>
-    <mergeCell ref="AM91:AN91"/>
-    <mergeCell ref="AM92:AN92"/>
-    <mergeCell ref="AM93:AN93"/>
-    <mergeCell ref="AM76:AN76"/>
-    <mergeCell ref="AM77:AO77"/>
-    <mergeCell ref="AM78:AN78"/>
-    <mergeCell ref="AM79:AO79"/>
-    <mergeCell ref="AM80:AN80"/>
-    <mergeCell ref="AM81:AN81"/>
-    <mergeCell ref="AM82:AO82"/>
-    <mergeCell ref="AM83:AN83"/>
-    <mergeCell ref="AM84:AO84"/>
-    <mergeCell ref="AM67:AN67"/>
-    <mergeCell ref="AM68:AN68"/>
-    <mergeCell ref="AM69:AN69"/>
-    <mergeCell ref="AM70:AO70"/>
-    <mergeCell ref="AM71:AO71"/>
-    <mergeCell ref="AM72:AN72"/>
-    <mergeCell ref="AM73:AN73"/>
-    <mergeCell ref="AM74:AO74"/>
-    <mergeCell ref="AM75:AN75"/>
-    <mergeCell ref="AM58:AN58"/>
-    <mergeCell ref="AM59:AO59"/>
-    <mergeCell ref="AM60:AO60"/>
-    <mergeCell ref="AM61:AN61"/>
-    <mergeCell ref="AM62:AO62"/>
-    <mergeCell ref="AM63:AN63"/>
-    <mergeCell ref="AM64:AO64"/>
-    <mergeCell ref="AM65:AN65"/>
-    <mergeCell ref="AM66:AN66"/>
-    <mergeCell ref="AM49:AN49"/>
-    <mergeCell ref="AM50:AO50"/>
-    <mergeCell ref="AM51:AN51"/>
-    <mergeCell ref="AM52:AO52"/>
-    <mergeCell ref="AM53:AO53"/>
-    <mergeCell ref="AM54:AO54"/>
-    <mergeCell ref="AM55:AO55"/>
-    <mergeCell ref="AM56:AN56"/>
-    <mergeCell ref="AM57:AO57"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="AM41:AO41"/>
-    <mergeCell ref="AM42:AO42"/>
-    <mergeCell ref="AM43:AN43"/>
-    <mergeCell ref="AM44:AO44"/>
-    <mergeCell ref="AM45:AO45"/>
-    <mergeCell ref="AM46:AO46"/>
-    <mergeCell ref="AM47:AO47"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AM39:AO39"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AM25:AO25"/>
-    <mergeCell ref="AM26:AO26"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="AM28:AO28"/>
-    <mergeCell ref="AM29:AN29"/>
-    <mergeCell ref="AM30:AO30"/>
-    <mergeCell ref="AM250:AO250"/>
-    <mergeCell ref="AM251:AN251"/>
-    <mergeCell ref="AM252:AO252"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AM10:AO10"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM13:AO13"/>
-    <mergeCell ref="AM14:AO14"/>
-    <mergeCell ref="AM15:AO15"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM18:AO18"/>
-    <mergeCell ref="AM19:AO19"/>
-    <mergeCell ref="AM20:AO20"/>
-    <mergeCell ref="AM21:AN21"/>
+  <mergeCells count="280">
+    <mergeCell ref="AM232:AN232"/>
+    <mergeCell ref="AM233:AN233"/>
+    <mergeCell ref="AM234:AN234"/>
+    <mergeCell ref="AM235:AO235"/>
+    <mergeCell ref="AM236:AO236"/>
+    <mergeCell ref="AM237:AO237"/>
+    <mergeCell ref="AM238:AO238"/>
+    <mergeCell ref="AM239:AN239"/>
+    <mergeCell ref="AM240:AO240"/>
+    <mergeCell ref="AM241:AN241"/>
+    <mergeCell ref="AM242:AN242"/>
+    <mergeCell ref="AM243:AO243"/>
+    <mergeCell ref="AM244:AO244"/>
+    <mergeCell ref="AM245:AO245"/>
+    <mergeCell ref="AM148:AO148"/>
+    <mergeCell ref="AM149:AO149"/>
+    <mergeCell ref="AM150:AN150"/>
+    <mergeCell ref="AM151:AO151"/>
+    <mergeCell ref="AM152:AN152"/>
+    <mergeCell ref="AM153:AO153"/>
+    <mergeCell ref="AM154:AO154"/>
+    <mergeCell ref="AM155:AO155"/>
+    <mergeCell ref="AM156:AN156"/>
+    <mergeCell ref="AM157:AN157"/>
+    <mergeCell ref="AM158:AO158"/>
+    <mergeCell ref="AM159:AO159"/>
+    <mergeCell ref="AM160:AN160"/>
+    <mergeCell ref="AM161:AN161"/>
+    <mergeCell ref="AM162:AO162"/>
+    <mergeCell ref="AM163:AO163"/>
+    <mergeCell ref="AM164:AN164"/>
+    <mergeCell ref="AM165:AN165"/>
+    <mergeCell ref="AM166:AO166"/>
+    <mergeCell ref="AM167:AN167"/>
+    <mergeCell ref="AM168:AN168"/>
+    <mergeCell ref="AM169:AN169"/>
+    <mergeCell ref="AM170:AN170"/>
+    <mergeCell ref="AM171:AN171"/>
+    <mergeCell ref="AM172:AN172"/>
+    <mergeCell ref="AM173:AO173"/>
+    <mergeCell ref="AM174:AN174"/>
+    <mergeCell ref="AM175:AN175"/>
+    <mergeCell ref="AM176:AO176"/>
+    <mergeCell ref="AM177:AO177"/>
+    <mergeCell ref="AM178:AN178"/>
+    <mergeCell ref="AM179:AN179"/>
+    <mergeCell ref="AM180:AN180"/>
+    <mergeCell ref="AM181:AN181"/>
+    <mergeCell ref="AM182:AO182"/>
+    <mergeCell ref="AM183:AN183"/>
+    <mergeCell ref="AM184:AO184"/>
     <mergeCell ref="AM185:AO185"/>
     <mergeCell ref="AM186:AN186"/>
     <mergeCell ref="AM187:AN187"/>
@@ -36674,57 +36519,211 @@
     <mergeCell ref="AM202:AN202"/>
     <mergeCell ref="AM203:AO203"/>
     <mergeCell ref="AM204:AN204"/>
-    <mergeCell ref="AM176:AO176"/>
-    <mergeCell ref="AM177:AO177"/>
-    <mergeCell ref="AM178:AN178"/>
-    <mergeCell ref="AM179:AN179"/>
-    <mergeCell ref="AM180:AN180"/>
-    <mergeCell ref="AM181:AN181"/>
-    <mergeCell ref="AM182:AO182"/>
-    <mergeCell ref="AM183:AN183"/>
-    <mergeCell ref="AM184:AO184"/>
-    <mergeCell ref="AM167:AN167"/>
-    <mergeCell ref="AM168:AN168"/>
-    <mergeCell ref="AM169:AN169"/>
-    <mergeCell ref="AM170:AN170"/>
-    <mergeCell ref="AM171:AN171"/>
-    <mergeCell ref="AM172:AN172"/>
-    <mergeCell ref="AM173:AO173"/>
-    <mergeCell ref="AM174:AN174"/>
-    <mergeCell ref="AM175:AN175"/>
-    <mergeCell ref="AM241:AN241"/>
-    <mergeCell ref="AM242:AN242"/>
-    <mergeCell ref="AM243:AO243"/>
-    <mergeCell ref="AM244:AO244"/>
-    <mergeCell ref="AM245:AO245"/>
-    <mergeCell ref="AM148:AO148"/>
-    <mergeCell ref="AM149:AO149"/>
-    <mergeCell ref="AM150:AN150"/>
-    <mergeCell ref="AM151:AO151"/>
-    <mergeCell ref="AM152:AN152"/>
-    <mergeCell ref="AM153:AO153"/>
-    <mergeCell ref="AM154:AO154"/>
-    <mergeCell ref="AM155:AO155"/>
-    <mergeCell ref="AM156:AN156"/>
-    <mergeCell ref="AM157:AN157"/>
-    <mergeCell ref="AM158:AO158"/>
-    <mergeCell ref="AM159:AO159"/>
-    <mergeCell ref="AM160:AN160"/>
-    <mergeCell ref="AM161:AN161"/>
-    <mergeCell ref="AM162:AO162"/>
-    <mergeCell ref="AM163:AO163"/>
-    <mergeCell ref="AM164:AN164"/>
-    <mergeCell ref="AM165:AN165"/>
-    <mergeCell ref="AM166:AO166"/>
-    <mergeCell ref="AM232:AN232"/>
-    <mergeCell ref="AM233:AN233"/>
-    <mergeCell ref="AM234:AN234"/>
-    <mergeCell ref="AM235:AO235"/>
-    <mergeCell ref="AM236:AO236"/>
-    <mergeCell ref="AM237:AO237"/>
-    <mergeCell ref="AM238:AO238"/>
-    <mergeCell ref="AM239:AN239"/>
-    <mergeCell ref="AM240:AO240"/>
+    <mergeCell ref="AM250:AO250"/>
+    <mergeCell ref="AM251:AN251"/>
+    <mergeCell ref="AM252:AO252"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM8:AO8"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AM10:AO10"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM13:AO13"/>
+    <mergeCell ref="AM14:AO14"/>
+    <mergeCell ref="AM15:AO15"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM18:AO18"/>
+    <mergeCell ref="AM19:AO19"/>
+    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AM25:AO25"/>
+    <mergeCell ref="AM26:AO26"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="AM28:AO28"/>
+    <mergeCell ref="AM29:AN29"/>
+    <mergeCell ref="AM30:AO30"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AM39:AO39"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="AM41:AO41"/>
+    <mergeCell ref="AM42:AO42"/>
+    <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="AM44:AO44"/>
+    <mergeCell ref="AM45:AO45"/>
+    <mergeCell ref="AM46:AO46"/>
+    <mergeCell ref="AM47:AO47"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AM49:AN49"/>
+    <mergeCell ref="AM50:AO50"/>
+    <mergeCell ref="AM51:AN51"/>
+    <mergeCell ref="AM52:AO52"/>
+    <mergeCell ref="AM53:AO53"/>
+    <mergeCell ref="AM54:AO54"/>
+    <mergeCell ref="AM55:AO55"/>
+    <mergeCell ref="AM56:AN56"/>
+    <mergeCell ref="AM57:AO57"/>
+    <mergeCell ref="AM58:AN58"/>
+    <mergeCell ref="AM59:AO59"/>
+    <mergeCell ref="AM60:AO60"/>
+    <mergeCell ref="AM61:AN61"/>
+    <mergeCell ref="AM62:AO62"/>
+    <mergeCell ref="AM63:AN63"/>
+    <mergeCell ref="AM64:AO64"/>
+    <mergeCell ref="AM65:AN65"/>
+    <mergeCell ref="AM66:AN66"/>
+    <mergeCell ref="AM67:AN67"/>
+    <mergeCell ref="AM68:AN68"/>
+    <mergeCell ref="AM69:AN69"/>
+    <mergeCell ref="AM70:AO70"/>
+    <mergeCell ref="AM71:AO71"/>
+    <mergeCell ref="AM72:AN72"/>
+    <mergeCell ref="AM73:AN73"/>
+    <mergeCell ref="AM74:AO74"/>
+    <mergeCell ref="AM75:AN75"/>
+    <mergeCell ref="AM76:AN76"/>
+    <mergeCell ref="AM77:AO77"/>
+    <mergeCell ref="AM78:AN78"/>
+    <mergeCell ref="AM79:AO79"/>
+    <mergeCell ref="AM80:AN80"/>
+    <mergeCell ref="AM81:AN81"/>
+    <mergeCell ref="AM82:AO82"/>
+    <mergeCell ref="AM83:AN83"/>
+    <mergeCell ref="AM84:AO84"/>
+    <mergeCell ref="AM85:AO85"/>
+    <mergeCell ref="AM86:AO86"/>
+    <mergeCell ref="AM87:AO87"/>
+    <mergeCell ref="AM88:AO88"/>
+    <mergeCell ref="AM89:AO89"/>
+    <mergeCell ref="AM90:AN90"/>
+    <mergeCell ref="AM91:AN91"/>
+    <mergeCell ref="AM92:AN92"/>
+    <mergeCell ref="AM93:AN93"/>
+    <mergeCell ref="AM94:AN94"/>
+    <mergeCell ref="AM95:AN95"/>
+    <mergeCell ref="AM96:AN96"/>
+    <mergeCell ref="AM97:AO97"/>
+    <mergeCell ref="AM98:AO98"/>
+    <mergeCell ref="AM99:AO99"/>
+    <mergeCell ref="AM100:AN100"/>
+    <mergeCell ref="AM101:AN101"/>
+    <mergeCell ref="AM102:AN102"/>
+    <mergeCell ref="AM103:AN103"/>
+    <mergeCell ref="AM104:AO104"/>
+    <mergeCell ref="AM105:AO105"/>
+    <mergeCell ref="AM106:AN106"/>
+    <mergeCell ref="AM107:AO107"/>
+    <mergeCell ref="AM108:AO108"/>
+    <mergeCell ref="AM109:AN109"/>
+    <mergeCell ref="AM110:AO110"/>
+    <mergeCell ref="AM111:AO111"/>
+    <mergeCell ref="AM112:AO112"/>
+    <mergeCell ref="AM113:AN113"/>
+    <mergeCell ref="AM114:AN114"/>
+    <mergeCell ref="AM115:AN115"/>
+    <mergeCell ref="AM116:AN116"/>
+    <mergeCell ref="AM117:AN117"/>
+    <mergeCell ref="AM118:AN118"/>
+    <mergeCell ref="AM119:AN119"/>
+    <mergeCell ref="AM120:AN120"/>
+    <mergeCell ref="AM121:AN121"/>
+    <mergeCell ref="AM122:AN122"/>
+    <mergeCell ref="AM123:AN123"/>
+    <mergeCell ref="AM124:AO124"/>
+    <mergeCell ref="AM125:AN125"/>
+    <mergeCell ref="AM126:AO126"/>
+    <mergeCell ref="AM127:AN127"/>
+    <mergeCell ref="AM128:AN128"/>
+    <mergeCell ref="AM129:AO129"/>
+    <mergeCell ref="AM130:AN130"/>
+    <mergeCell ref="AM131:AN131"/>
+    <mergeCell ref="AM132:AN132"/>
+    <mergeCell ref="AM133:AN133"/>
+    <mergeCell ref="AM134:AO134"/>
+    <mergeCell ref="AM135:AO135"/>
+    <mergeCell ref="AM136:AO136"/>
+    <mergeCell ref="AM137:AN137"/>
+    <mergeCell ref="AM138:AO138"/>
+    <mergeCell ref="AM139:AO139"/>
+    <mergeCell ref="AM140:AN140"/>
+    <mergeCell ref="AM141:AN141"/>
+    <mergeCell ref="AM142:AN142"/>
+    <mergeCell ref="AM143:AO143"/>
+    <mergeCell ref="AM144:AO144"/>
+    <mergeCell ref="AM145:AN145"/>
+    <mergeCell ref="AM146:AN146"/>
+    <mergeCell ref="AM147:AN147"/>
+    <mergeCell ref="AM205:AN205"/>
+    <mergeCell ref="AM206:AN206"/>
+    <mergeCell ref="AM207:AN207"/>
+    <mergeCell ref="AM208:AN208"/>
+    <mergeCell ref="AM209:AO209"/>
+    <mergeCell ref="AM210:AN210"/>
+    <mergeCell ref="AM211:AN211"/>
+    <mergeCell ref="AM212:AO212"/>
+    <mergeCell ref="AM213:AN213"/>
+    <mergeCell ref="AM214:AO214"/>
+    <mergeCell ref="AM215:AN215"/>
+    <mergeCell ref="AM216:AO216"/>
+    <mergeCell ref="AM217:AN217"/>
+    <mergeCell ref="AM218:AN218"/>
+    <mergeCell ref="AM219:AN219"/>
+    <mergeCell ref="AM220:AN220"/>
+    <mergeCell ref="AM221:AO221"/>
+    <mergeCell ref="AM222:AO222"/>
+    <mergeCell ref="AM223:AO223"/>
+    <mergeCell ref="AM224:AN224"/>
+    <mergeCell ref="AM225:AN225"/>
+    <mergeCell ref="AM226:AN226"/>
+    <mergeCell ref="AM227:AN227"/>
+    <mergeCell ref="AM228:AN228"/>
+    <mergeCell ref="AM229:AO229"/>
+    <mergeCell ref="AM230:AO230"/>
+    <mergeCell ref="AM231:AN231"/>
+    <mergeCell ref="AM253:AO253"/>
+    <mergeCell ref="AM254:AO254"/>
+    <mergeCell ref="AM255:AO255"/>
+    <mergeCell ref="AM256:AN256"/>
+    <mergeCell ref="AM257:AN257"/>
+    <mergeCell ref="AM258:AN258"/>
+    <mergeCell ref="AM259:AO259"/>
+    <mergeCell ref="AM260:AO260"/>
+    <mergeCell ref="AM261:AN261"/>
+    <mergeCell ref="AM262:AN262"/>
+    <mergeCell ref="AM263:AO263"/>
+    <mergeCell ref="AM264:AO264"/>
+    <mergeCell ref="AM265:AN265"/>
+    <mergeCell ref="AM266:AN266"/>
+    <mergeCell ref="AM274:AN274"/>
+    <mergeCell ref="AM275:AN275"/>
+    <mergeCell ref="AM276:AO276"/>
+    <mergeCell ref="AM277:AN277"/>
+    <mergeCell ref="AM278:AN278"/>
+    <mergeCell ref="AM279:AN279"/>
+    <mergeCell ref="AM280:AO280"/>
+    <mergeCell ref="AM281:AN281"/>
+    <mergeCell ref="AM267:AO267"/>
+    <mergeCell ref="AM268:AN268"/>
+    <mergeCell ref="AM269:AO269"/>
+    <mergeCell ref="AM270:AN270"/>
+    <mergeCell ref="AM271:AN271"/>
+    <mergeCell ref="AM272:AN272"/>
+    <mergeCell ref="AM273:AO273"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Extended_final_table_April2021_ITS_noBlank_correctedIDs.xlsx
+++ b/analysis_data/from_pema/processing_batch1/taxonomic_assignments/Extended_final_table_April2021_ITS_noBlank_correctedIDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katrinae\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAA7B09-45AE-4CE3-9A70-B5979705ED14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50C2E924-956C-4480-9A9D-6B15C16647C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="3340" windowWidth="14710" windowHeight="6830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="17120" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2065,9 +2065,6 @@
     <t>ARMS_Crete_1HERP_20190612_20191011_MF500</t>
   </si>
   <si>
-    <t>ARMS_Crete_1HERP_20190612_202191011_MF90</t>
-  </si>
-  <si>
     <t>ARMS_Crete_1HERP_20190612_20191011_SF</t>
   </si>
   <si>
@@ -2101,9 +2098,6 @@
     <t>ARMS_Gdynia_GDY1_20190619_20191029_MF500</t>
   </si>
   <si>
-    <t>ARMS_Getxo_G2_20190624_20191016_MF100_</t>
-  </si>
-  <si>
     <t>ARMS_Laeso_Laeso1_20190819_20200811_MF100</t>
   </si>
   <si>
@@ -2146,9 +2140,6 @@
     <t>ARMS_Roscoff_BasBloS3_20190612_20200529_SF40</t>
   </si>
   <si>
-    <t>ARMS_Svalbard_S1_20180706_20190806_MF500_ITS</t>
-  </si>
-  <si>
     <t>ARMS_Svalbard_S1_20180706_20190806_SF40_ETOH</t>
   </si>
   <si>
@@ -2168,6 +2159,15 @@
   </si>
   <si>
     <t>ARMS_BelgiumCoast_AZBE1_20190924_20200303_SF40</t>
+  </si>
+  <si>
+    <t>ARMS_Svalbard_S1_20180706_20190806_MF500</t>
+  </si>
+  <si>
+    <t>ARMS_Getxo_G2_20190624_20191016_MF100</t>
+  </si>
+  <si>
+    <t>ARMS_Crete_1HERP_20190612_20191011_MF90</t>
   </si>
 </sst>
 </file>
@@ -2213,8 +2213,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2435,123 +2435,123 @@
   </sheetPr>
   <dimension ref="A1:AO281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.36328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C1" t="s">
         <v>680</v>
       </c>
       <c r="D1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E1" t="s">
         <v>681</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>682</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>683</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>684</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>685</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>686</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>687</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>688</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>689</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>690</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>691</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q1" t="s">
         <v>692</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>693</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>694</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>695</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>696</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>697</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>698</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>699</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>700</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>701</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>702</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>703</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>704</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>705</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
+        <v>713</v>
+      </c>
+      <c r="AF1" t="s">
         <v>706</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>707</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>708</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>709</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>710</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>711</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>712</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>713</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>714</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>1</v>
@@ -2677,10 +2677,10 @@
       <c r="AL2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AM2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="3"/>
+      <c r="AN2" s="4"/>
       <c r="AO2" s="1"/>
     </row>
     <row r="3" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2798,10 +2798,10 @@
       <c r="AL3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AM3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="3"/>
+      <c r="AN3" s="4"/>
       <c r="AO3" s="1"/>
     </row>
     <row r="4" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2919,10 +2919,10 @@
       <c r="AL4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" s="3"/>
+      <c r="AN4" s="4"/>
       <c r="AO4" s="1"/>
     </row>
     <row r="5" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3040,11 +3040,11 @@
       <c r="AL5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AM5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
     </row>
     <row r="6" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -3161,10 +3161,10 @@
       <c r="AL6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AM6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AN6" s="3"/>
+      <c r="AN6" s="4"/>
       <c r="AO6" s="1"/>
     </row>
     <row r="7" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3282,10 +3282,10 @@
       <c r="AL7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AM7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AN7" s="3"/>
+      <c r="AN7" s="4"/>
       <c r="AO7" s="1"/>
     </row>
     <row r="8" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3403,11 +3403,11 @@
       <c r="AL8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AM8" s="3" t="s">
+      <c r="AM8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
     </row>
     <row r="9" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -3524,10 +3524,10 @@
       <c r="AL9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AM9" s="3" t="s">
+      <c r="AM9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="3"/>
+      <c r="AN9" s="4"/>
       <c r="AO9" s="1"/>
     </row>
     <row r="10" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3645,11 +3645,11 @@
       <c r="AL10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AM10" s="3" t="s">
+      <c r="AM10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
     </row>
     <row r="11" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -3766,10 +3766,10 @@
       <c r="AL11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AM11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AN11" s="3"/>
+      <c r="AN11" s="4"/>
       <c r="AO11" s="1"/>
     </row>
     <row r="12" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3887,10 +3887,10 @@
       <c r="AL12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AM12" s="3" t="s">
+      <c r="AM12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AN12" s="3"/>
+      <c r="AN12" s="4"/>
       <c r="AO12" s="1"/>
     </row>
     <row r="13" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4008,11 +4008,11 @@
       <c r="AL13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM13" s="3" t="s">
+      <c r="AM13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
     </row>
     <row r="14" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -4129,11 +4129,11 @@
       <c r="AL14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AM14" s="3" t="s">
+      <c r="AM14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
     </row>
     <row r="15" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -4250,11 +4250,11 @@
       <c r="AL15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AM15" s="3" t="s">
+      <c r="AM15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
     </row>
     <row r="16" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -4371,10 +4371,10 @@
       <c r="AL16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AM16" s="3" t="s">
+      <c r="AM16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN16" s="3"/>
+      <c r="AN16" s="4"/>
       <c r="AO16" s="1"/>
     </row>
     <row r="17" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -4492,10 +4492,10 @@
       <c r="AL17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AM17" s="3" t="s">
+      <c r="AM17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AN17" s="3"/>
+      <c r="AN17" s="4"/>
       <c r="AO17" s="1"/>
     </row>
     <row r="18" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -4613,11 +4613,11 @@
       <c r="AL18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM18" s="3" t="s">
+      <c r="AM18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
     </row>
     <row r="19" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
@@ -4734,11 +4734,11 @@
       <c r="AL19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AM19" s="3" t="s">
+      <c r="AM19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
     </row>
     <row r="20" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -4855,11 +4855,11 @@
       <c r="AL20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AM20" s="3" t="s">
+      <c r="AM20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
     </row>
     <row r="21" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -4976,10 +4976,10 @@
       <c r="AL21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM21" s="3" t="s">
+      <c r="AM21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN21" s="3"/>
+      <c r="AN21" s="4"/>
       <c r="AO21" s="1"/>
     </row>
     <row r="22" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -5097,10 +5097,10 @@
       <c r="AL22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM22" s="3" t="s">
+      <c r="AM22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN22" s="3"/>
+      <c r="AN22" s="4"/>
       <c r="AO22" s="1"/>
     </row>
     <row r="23" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -5218,10 +5218,10 @@
       <c r="AL23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AM23" s="3" t="s">
+      <c r="AM23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN23" s="3"/>
+      <c r="AN23" s="4"/>
       <c r="AO23" s="1"/>
     </row>
     <row r="24" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -5339,10 +5339,10 @@
       <c r="AL24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AM24" s="3" t="s">
+      <c r="AM24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AN24" s="3"/>
+      <c r="AN24" s="4"/>
       <c r="AO24" s="1"/>
     </row>
     <row r="25" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -5460,11 +5460,11 @@
       <c r="AL25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AM25" s="3" t="s">
+      <c r="AM25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
     </row>
     <row r="26" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -5581,11 +5581,11 @@
       <c r="AL26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AM26" s="3" t="s">
+      <c r="AM26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
     </row>
     <row r="27" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -5702,10 +5702,10 @@
       <c r="AL27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM27" s="3" t="s">
+      <c r="AM27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN27" s="3"/>
+      <c r="AN27" s="4"/>
       <c r="AO27" s="1"/>
     </row>
     <row r="28" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -5823,11 +5823,11 @@
       <c r="AL28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AM28" s="3" t="s">
+      <c r="AM28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
     </row>
     <row r="29" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -5944,10 +5944,10 @@
       <c r="AL29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AM29" s="3" t="s">
+      <c r="AM29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AN29" s="3"/>
+      <c r="AN29" s="4"/>
       <c r="AO29" s="1"/>
     </row>
     <row r="30" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6065,11 +6065,11 @@
       <c r="AL30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AM30" s="3" t="s">
+      <c r="AM30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AN30" s="3"/>
-      <c r="AO30" s="3"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
     </row>
     <row r="31" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -6186,10 +6186,10 @@
       <c r="AL31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AM31" s="3" t="s">
+      <c r="AM31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN31" s="3"/>
+      <c r="AN31" s="4"/>
       <c r="AO31" s="1"/>
     </row>
     <row r="32" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6307,10 +6307,10 @@
       <c r="AL32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AM32" s="3" t="s">
+      <c r="AM32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AN32" s="3"/>
+      <c r="AN32" s="4"/>
       <c r="AO32" s="1"/>
     </row>
     <row r="33" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6428,10 +6428,10 @@
       <c r="AL33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AM33" s="3" t="s">
+      <c r="AM33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN33" s="3"/>
+      <c r="AN33" s="4"/>
       <c r="AO33" s="1"/>
     </row>
     <row r="34" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6549,10 +6549,10 @@
       <c r="AL34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AM34" s="3" t="s">
+      <c r="AM34" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AN34" s="3"/>
+      <c r="AN34" s="4"/>
       <c r="AO34" s="1"/>
     </row>
     <row r="35" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6670,10 +6670,10 @@
       <c r="AL35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AM35" s="3" t="s">
+      <c r="AM35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AN35" s="3"/>
+      <c r="AN35" s="4"/>
       <c r="AO35" s="1"/>
     </row>
     <row r="36" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6791,10 +6791,10 @@
       <c r="AL36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AM36" s="3" t="s">
+      <c r="AM36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AN36" s="3"/>
+      <c r="AN36" s="4"/>
       <c r="AO36" s="1"/>
     </row>
     <row r="37" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -6912,10 +6912,10 @@
       <c r="AL37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AM37" s="3" t="s">
+      <c r="AM37" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AN37" s="3"/>
+      <c r="AN37" s="4"/>
       <c r="AO37" s="1"/>
     </row>
     <row r="38" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -7033,10 +7033,10 @@
       <c r="AL38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AM38" s="3" t="s">
+      <c r="AM38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN38" s="3"/>
+      <c r="AN38" s="4"/>
       <c r="AO38" s="1"/>
     </row>
     <row r="39" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -7154,11 +7154,11 @@
       <c r="AL39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AM39" s="3" t="s">
+      <c r="AM39" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AN39" s="3"/>
-      <c r="AO39" s="3"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
     </row>
     <row r="40" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
@@ -7275,10 +7275,10 @@
       <c r="AL40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AM40" s="3" t="s">
+      <c r="AM40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AN40" s="3"/>
+      <c r="AN40" s="4"/>
       <c r="AO40" s="1"/>
     </row>
     <row r="41" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -7396,11 +7396,11 @@
       <c r="AL41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AM41" s="3" t="s">
+      <c r="AM41" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AN41" s="3"/>
-      <c r="AO41" s="3"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
     </row>
     <row r="42" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
@@ -7517,11 +7517,11 @@
       <c r="AL42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AM42" s="3" t="s">
+      <c r="AM42" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AN42" s="3"/>
-      <c r="AO42" s="3"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
     </row>
     <row r="43" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
@@ -7638,10 +7638,10 @@
       <c r="AL43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AM43" s="3" t="s">
+      <c r="AM43" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN43" s="3"/>
+      <c r="AN43" s="4"/>
       <c r="AO43" s="1"/>
     </row>
     <row r="44" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -7759,11 +7759,11 @@
       <c r="AL44" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AM44" s="3" t="s">
+      <c r="AM44" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AN44" s="3"/>
-      <c r="AO44" s="3"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
     </row>
     <row r="45" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
@@ -7880,11 +7880,11 @@
       <c r="AL45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AM45" s="3" t="s">
+      <c r="AM45" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AN45" s="3"/>
-      <c r="AO45" s="3"/>
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
     </row>
     <row r="46" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
@@ -8001,11 +8001,11 @@
       <c r="AL46" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AM46" s="3" t="s">
+      <c r="AM46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AN46" s="3"/>
-      <c r="AO46" s="3"/>
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="4"/>
     </row>
     <row r="47" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
@@ -8122,11 +8122,11 @@
       <c r="AL47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AM47" s="3" t="s">
+      <c r="AM47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AN47" s="3"/>
-      <c r="AO47" s="3"/>
+      <c r="AN47" s="4"/>
+      <c r="AO47" s="4"/>
     </row>
     <row r="48" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
@@ -8243,10 +8243,10 @@
       <c r="AL48" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AM48" s="3" t="s">
+      <c r="AM48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AN48" s="3"/>
+      <c r="AN48" s="4"/>
       <c r="AO48" s="1"/>
     </row>
     <row r="49" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -8364,10 +8364,10 @@
       <c r="AL49" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AM49" s="3" t="s">
+      <c r="AM49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AN49" s="3"/>
+      <c r="AN49" s="4"/>
       <c r="AO49" s="1"/>
     </row>
     <row r="50" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -8485,11 +8485,11 @@
       <c r="AL50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AM50" s="3" t="s">
+      <c r="AM50" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AN50" s="3"/>
-      <c r="AO50" s="3"/>
+      <c r="AN50" s="4"/>
+      <c r="AO50" s="4"/>
     </row>
     <row r="51" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
@@ -8606,10 +8606,10 @@
       <c r="AL51" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AM51" s="3" t="s">
+      <c r="AM51" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AN51" s="3"/>
+      <c r="AN51" s="4"/>
       <c r="AO51" s="1"/>
     </row>
     <row r="52" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -8727,11 +8727,11 @@
       <c r="AL52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AM52" s="3" t="s">
+      <c r="AM52" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AN52" s="3"/>
-      <c r="AO52" s="3"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
     </row>
     <row r="53" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -8848,11 +8848,11 @@
       <c r="AL53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AM53" s="3" t="s">
+      <c r="AM53" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AN53" s="3"/>
-      <c r="AO53" s="3"/>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4"/>
     </row>
     <row r="54" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
@@ -8969,11 +8969,11 @@
       <c r="AL54" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AM54" s="3" t="s">
+      <c r="AM54" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AN54" s="3"/>
-      <c r="AO54" s="3"/>
+      <c r="AN54" s="4"/>
+      <c r="AO54" s="4"/>
     </row>
     <row r="55" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
@@ -9090,11 +9090,11 @@
       <c r="AL55" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AM55" s="3" t="s">
+      <c r="AM55" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AN55" s="3"/>
-      <c r="AO55" s="3"/>
+      <c r="AN55" s="4"/>
+      <c r="AO55" s="4"/>
     </row>
     <row r="56" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
@@ -9211,10 +9211,10 @@
       <c r="AL56" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AM56" s="3" t="s">
+      <c r="AM56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN56" s="3"/>
+      <c r="AN56" s="4"/>
       <c r="AO56" s="1"/>
     </row>
     <row r="57" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -9332,11 +9332,11 @@
       <c r="AL57" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AM57" s="3" t="s">
+      <c r="AM57" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AN57" s="3"/>
-      <c r="AO57" s="3"/>
+      <c r="AN57" s="4"/>
+      <c r="AO57" s="4"/>
     </row>
     <row r="58" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
@@ -9453,10 +9453,10 @@
       <c r="AL58" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AM58" s="3" t="s">
+      <c r="AM58" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AN58" s="3"/>
+      <c r="AN58" s="4"/>
       <c r="AO58" s="1"/>
     </row>
     <row r="59" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -9574,11 +9574,11 @@
       <c r="AL59" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AM59" s="3" t="s">
+      <c r="AM59" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AN59" s="3"/>
-      <c r="AO59" s="3"/>
+      <c r="AN59" s="4"/>
+      <c r="AO59" s="4"/>
     </row>
     <row r="60" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
@@ -9695,11 +9695,11 @@
       <c r="AL60" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AM60" s="3" t="s">
+      <c r="AM60" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AN60" s="3"/>
-      <c r="AO60" s="3"/>
+      <c r="AN60" s="4"/>
+      <c r="AO60" s="4"/>
     </row>
     <row r="61" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
@@ -9816,10 +9816,10 @@
       <c r="AL61" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AM61" s="3" t="s">
+      <c r="AM61" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AN61" s="3"/>
+      <c r="AN61" s="4"/>
       <c r="AO61" s="1"/>
     </row>
     <row r="62" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -9937,11 +9937,11 @@
       <c r="AL62" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AM62" s="3" t="s">
+      <c r="AM62" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AN62" s="3"/>
-      <c r="AO62" s="3"/>
+      <c r="AN62" s="4"/>
+      <c r="AO62" s="4"/>
     </row>
     <row r="63" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
@@ -10058,10 +10058,10 @@
       <c r="AL63" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AM63" s="3" t="s">
+      <c r="AM63" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AN63" s="3"/>
+      <c r="AN63" s="4"/>
       <c r="AO63" s="1"/>
     </row>
     <row r="64" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -10179,11 +10179,11 @@
       <c r="AL64" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AM64" s="3" t="s">
+      <c r="AM64" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AN64" s="3"/>
-      <c r="AO64" s="3"/>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="4"/>
     </row>
     <row r="65" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
@@ -10300,10 +10300,10 @@
       <c r="AL65" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AM65" s="3" t="s">
+      <c r="AM65" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AN65" s="3"/>
+      <c r="AN65" s="4"/>
       <c r="AO65" s="1"/>
     </row>
     <row r="66" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -10421,10 +10421,10 @@
       <c r="AL66" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AM66" s="3" t="s">
+      <c r="AM66" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="AN66" s="3"/>
+      <c r="AN66" s="4"/>
       <c r="AO66" s="1"/>
     </row>
     <row r="67" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -10542,10 +10542,10 @@
       <c r="AL67" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AM67" s="3" t="s">
+      <c r="AM67" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN67" s="3"/>
+      <c r="AN67" s="4"/>
       <c r="AO67" s="1"/>
     </row>
     <row r="68" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -10663,10 +10663,10 @@
       <c r="AL68" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AM68" s="3" t="s">
+      <c r="AM68" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AN68" s="3"/>
+      <c r="AN68" s="4"/>
       <c r="AO68" s="1"/>
     </row>
     <row r="69" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -10784,10 +10784,10 @@
       <c r="AL69" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AM69" s="3" t="s">
+      <c r="AM69" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AN69" s="3"/>
+      <c r="AN69" s="4"/>
       <c r="AO69" s="1"/>
     </row>
     <row r="70" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -10905,11 +10905,11 @@
       <c r="AL70" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AM70" s="3" t="s">
+      <c r="AM70" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AN70" s="3"/>
-      <c r="AO70" s="3"/>
+      <c r="AN70" s="4"/>
+      <c r="AO70" s="4"/>
     </row>
     <row r="71" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
@@ -11026,11 +11026,11 @@
       <c r="AL71" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AM71" s="3" t="s">
+      <c r="AM71" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AN71" s="3"/>
-      <c r="AO71" s="3"/>
+      <c r="AN71" s="4"/>
+      <c r="AO71" s="4"/>
     </row>
     <row r="72" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
@@ -11147,10 +11147,10 @@
       <c r="AL72" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AM72" s="3" t="s">
+      <c r="AM72" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN72" s="3"/>
+      <c r="AN72" s="4"/>
       <c r="AO72" s="1"/>
     </row>
     <row r="73" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -11268,10 +11268,10 @@
       <c r="AL73" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AM73" s="3" t="s">
+      <c r="AM73" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN73" s="3"/>
+      <c r="AN73" s="4"/>
       <c r="AO73" s="1"/>
     </row>
     <row r="74" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -11389,11 +11389,11 @@
       <c r="AL74" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AM74" s="3" t="s">
+      <c r="AM74" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AN74" s="3"/>
-      <c r="AO74" s="3"/>
+      <c r="AN74" s="4"/>
+      <c r="AO74" s="4"/>
     </row>
     <row r="75" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
@@ -11510,10 +11510,10 @@
       <c r="AL75" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AM75" s="3" t="s">
+      <c r="AM75" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AN75" s="3"/>
+      <c r="AN75" s="4"/>
       <c r="AO75" s="1"/>
     </row>
     <row r="76" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -11631,10 +11631,10 @@
       <c r="AL76" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AM76" s="3" t="s">
+      <c r="AM76" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AN76" s="3"/>
+      <c r="AN76" s="4"/>
       <c r="AO76" s="1"/>
     </row>
     <row r="77" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -11752,11 +11752,11 @@
       <c r="AL77" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AM77" s="3" t="s">
+      <c r="AM77" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AN77" s="3"/>
-      <c r="AO77" s="3"/>
+      <c r="AN77" s="4"/>
+      <c r="AO77" s="4"/>
     </row>
     <row r="78" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
@@ -11873,10 +11873,10 @@
       <c r="AL78" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AM78" s="3" t="s">
+      <c r="AM78" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AN78" s="3"/>
+      <c r="AN78" s="4"/>
       <c r="AO78" s="1"/>
     </row>
     <row r="79" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -11994,11 +11994,11 @@
       <c r="AL79" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AM79" s="3" t="s">
+      <c r="AM79" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="AN79" s="3"/>
-      <c r="AO79" s="3"/>
+      <c r="AN79" s="4"/>
+      <c r="AO79" s="4"/>
     </row>
     <row r="80" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
@@ -12115,10 +12115,10 @@
       <c r="AL80" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AM80" s="3" t="s">
+      <c r="AM80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AN80" s="3"/>
+      <c r="AN80" s="4"/>
       <c r="AO80" s="1"/>
     </row>
     <row r="81" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -12236,10 +12236,10 @@
       <c r="AL81" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AM81" s="3" t="s">
+      <c r="AM81" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN81" s="3"/>
+      <c r="AN81" s="4"/>
       <c r="AO81" s="1"/>
     </row>
     <row r="82" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -12357,11 +12357,11 @@
       <c r="AL82" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AM82" s="3" t="s">
+      <c r="AM82" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AN82" s="3"/>
-      <c r="AO82" s="3"/>
+      <c r="AN82" s="4"/>
+      <c r="AO82" s="4"/>
     </row>
     <row r="83" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
@@ -12478,10 +12478,10 @@
       <c r="AL83" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AM83" s="3" t="s">
+      <c r="AM83" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN83" s="3"/>
+      <c r="AN83" s="4"/>
       <c r="AO83" s="1"/>
     </row>
     <row r="84" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -12599,11 +12599,11 @@
       <c r="AL84" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AM84" s="3" t="s">
+      <c r="AM84" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AN84" s="3"/>
-      <c r="AO84" s="3"/>
+      <c r="AN84" s="4"/>
+      <c r="AO84" s="4"/>
     </row>
     <row r="85" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
@@ -12720,11 +12720,11 @@
       <c r="AL85" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AM85" s="3" t="s">
+      <c r="AM85" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="AN85" s="3"/>
-      <c r="AO85" s="3"/>
+      <c r="AN85" s="4"/>
+      <c r="AO85" s="4"/>
     </row>
     <row r="86" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
@@ -12841,11 +12841,11 @@
       <c r="AL86" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AM86" s="3" t="s">
+      <c r="AM86" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AN86" s="3"/>
-      <c r="AO86" s="3"/>
+      <c r="AN86" s="4"/>
+      <c r="AO86" s="4"/>
     </row>
     <row r="87" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
@@ -12962,11 +12962,11 @@
       <c r="AL87" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AM87" s="3" t="s">
+      <c r="AM87" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AN87" s="3"/>
-      <c r="AO87" s="3"/>
+      <c r="AN87" s="4"/>
+      <c r="AO87" s="4"/>
     </row>
     <row r="88" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
@@ -13083,11 +13083,11 @@
       <c r="AL88" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AM88" s="3" t="s">
+      <c r="AM88" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="AN88" s="3"/>
-      <c r="AO88" s="3"/>
+      <c r="AN88" s="4"/>
+      <c r="AO88" s="4"/>
     </row>
     <row r="89" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
@@ -13204,11 +13204,11 @@
       <c r="AL89" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AM89" s="3" t="s">
+      <c r="AM89" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="AN89" s="3"/>
-      <c r="AO89" s="3"/>
+      <c r="AN89" s="4"/>
+      <c r="AO89" s="4"/>
     </row>
     <row r="90" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
@@ -13325,10 +13325,10 @@
       <c r="AL90" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AM90" s="3" t="s">
+      <c r="AM90" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="AN90" s="3"/>
+      <c r="AN90" s="4"/>
       <c r="AO90" s="1"/>
     </row>
     <row r="91" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -13446,10 +13446,10 @@
       <c r="AL91" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AM91" s="3" t="s">
+      <c r="AM91" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AN91" s="3"/>
+      <c r="AN91" s="4"/>
       <c r="AO91" s="1"/>
     </row>
     <row r="92" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -13567,10 +13567,10 @@
       <c r="AL92" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AM92" s="3" t="s">
+      <c r="AM92" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN92" s="3"/>
+      <c r="AN92" s="4"/>
       <c r="AO92" s="1"/>
     </row>
     <row r="93" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -13688,10 +13688,10 @@
       <c r="AL93" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AM93" s="3" t="s">
+      <c r="AM93" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="AN93" s="3"/>
+      <c r="AN93" s="4"/>
       <c r="AO93" s="1"/>
     </row>
     <row r="94" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -13809,10 +13809,10 @@
       <c r="AL94" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AM94" s="3" t="s">
+      <c r="AM94" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AN94" s="3"/>
+      <c r="AN94" s="4"/>
       <c r="AO94" s="1"/>
     </row>
     <row r="95" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -13930,10 +13930,10 @@
       <c r="AL95" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AM95" s="3" t="s">
+      <c r="AM95" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN95" s="3"/>
+      <c r="AN95" s="4"/>
       <c r="AO95" s="1"/>
     </row>
     <row r="96" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -14051,10 +14051,10 @@
       <c r="AL96" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AM96" s="3" t="s">
+      <c r="AM96" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="AN96" s="3"/>
+      <c r="AN96" s="4"/>
       <c r="AO96" s="1"/>
     </row>
     <row r="97" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -14172,11 +14172,11 @@
       <c r="AL97" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AM97" s="3" t="s">
+      <c r="AM97" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="AN97" s="3"/>
-      <c r="AO97" s="3"/>
+      <c r="AN97" s="4"/>
+      <c r="AO97" s="4"/>
     </row>
     <row r="98" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
@@ -14293,11 +14293,11 @@
       <c r="AL98" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AM98" s="3" t="s">
+      <c r="AM98" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="AN98" s="3"/>
-      <c r="AO98" s="3"/>
+      <c r="AN98" s="4"/>
+      <c r="AO98" s="4"/>
     </row>
     <row r="99" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
@@ -14414,11 +14414,11 @@
       <c r="AL99" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AM99" s="3" t="s">
+      <c r="AM99" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="AN99" s="3"/>
-      <c r="AO99" s="3"/>
+      <c r="AN99" s="4"/>
+      <c r="AO99" s="4"/>
     </row>
     <row r="100" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
@@ -14535,10 +14535,10 @@
       <c r="AL100" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AM100" s="3" t="s">
+      <c r="AM100" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN100" s="3"/>
+      <c r="AN100" s="4"/>
       <c r="AO100" s="1"/>
     </row>
     <row r="101" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -14656,10 +14656,10 @@
       <c r="AL101" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AM101" s="3" t="s">
+      <c r="AM101" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN101" s="3"/>
+      <c r="AN101" s="4"/>
       <c r="AO101" s="1"/>
     </row>
     <row r="102" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -14777,10 +14777,10 @@
       <c r="AL102" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AM102" s="3" t="s">
+      <c r="AM102" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AN102" s="3"/>
+      <c r="AN102" s="4"/>
       <c r="AO102" s="1"/>
     </row>
     <row r="103" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -14898,10 +14898,10 @@
       <c r="AL103" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AM103" s="3" t="s">
+      <c r="AM103" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AN103" s="3"/>
+      <c r="AN103" s="4"/>
       <c r="AO103" s="1"/>
     </row>
     <row r="104" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -15019,11 +15019,11 @@
       <c r="AL104" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AM104" s="3" t="s">
+      <c r="AM104" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="AN104" s="3"/>
-      <c r="AO104" s="3"/>
+      <c r="AN104" s="4"/>
+      <c r="AO104" s="4"/>
     </row>
     <row r="105" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
@@ -15140,11 +15140,11 @@
       <c r="AL105" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AM105" s="3" t="s">
+      <c r="AM105" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AN105" s="3"/>
-      <c r="AO105" s="3"/>
+      <c r="AN105" s="4"/>
+      <c r="AO105" s="4"/>
     </row>
     <row r="106" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
@@ -15261,10 +15261,10 @@
       <c r="AL106" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AM106" s="3" t="s">
+      <c r="AM106" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AN106" s="3"/>
+      <c r="AN106" s="4"/>
       <c r="AO106" s="1"/>
     </row>
     <row r="107" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -15382,11 +15382,11 @@
       <c r="AL107" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AM107" s="3" t="s">
+      <c r="AM107" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AN107" s="3"/>
-      <c r="AO107" s="3"/>
+      <c r="AN107" s="4"/>
+      <c r="AO107" s="4"/>
     </row>
     <row r="108" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
@@ -15503,11 +15503,11 @@
       <c r="AL108" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AM108" s="3" t="s">
+      <c r="AM108" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AN108" s="3"/>
-      <c r="AO108" s="3"/>
+      <c r="AN108" s="4"/>
+      <c r="AO108" s="4"/>
     </row>
     <row r="109" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
@@ -15624,10 +15624,10 @@
       <c r="AL109" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AM109" s="3" t="s">
+      <c r="AM109" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="AN109" s="3"/>
+      <c r="AN109" s="4"/>
       <c r="AO109" s="1"/>
     </row>
     <row r="110" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -15745,11 +15745,11 @@
       <c r="AL110" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AM110" s="3" t="s">
+      <c r="AM110" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AN110" s="3"/>
-      <c r="AO110" s="3"/>
+      <c r="AN110" s="4"/>
+      <c r="AO110" s="4"/>
     </row>
     <row r="111" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
@@ -15866,11 +15866,11 @@
       <c r="AL111" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AM111" s="3" t="s">
+      <c r="AM111" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AN111" s="3"/>
-      <c r="AO111" s="3"/>
+      <c r="AN111" s="4"/>
+      <c r="AO111" s="4"/>
     </row>
     <row r="112" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
@@ -15987,11 +15987,11 @@
       <c r="AL112" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AM112" s="3" t="s">
+      <c r="AM112" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AN112" s="3"/>
-      <c r="AO112" s="3"/>
+      <c r="AN112" s="4"/>
+      <c r="AO112" s="4"/>
     </row>
     <row r="113" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
@@ -16108,10 +16108,10 @@
       <c r="AL113" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AM113" s="3" t="s">
+      <c r="AM113" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AN113" s="3"/>
+      <c r="AN113" s="4"/>
       <c r="AO113" s="1"/>
     </row>
     <row r="114" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16229,10 +16229,10 @@
       <c r="AL114" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AM114" s="3" t="s">
+      <c r="AM114" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN114" s="3"/>
+      <c r="AN114" s="4"/>
       <c r="AO114" s="1"/>
     </row>
     <row r="115" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16350,10 +16350,10 @@
       <c r="AL115" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AM115" s="3" t="s">
+      <c r="AM115" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN115" s="3"/>
+      <c r="AN115" s="4"/>
       <c r="AO115" s="1"/>
     </row>
     <row r="116" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16471,10 +16471,10 @@
       <c r="AL116" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AM116" s="3" t="s">
+      <c r="AM116" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AN116" s="3"/>
+      <c r="AN116" s="4"/>
       <c r="AO116" s="1"/>
     </row>
     <row r="117" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16592,10 +16592,10 @@
       <c r="AL117" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AM117" s="3" t="s">
+      <c r="AM117" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AN117" s="3"/>
+      <c r="AN117" s="4"/>
       <c r="AO117" s="1"/>
     </row>
     <row r="118" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16713,10 +16713,10 @@
       <c r="AL118" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AM118" s="3" t="s">
+      <c r="AM118" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AN118" s="3"/>
+      <c r="AN118" s="4"/>
       <c r="AO118" s="1"/>
     </row>
     <row r="119" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16834,10 +16834,10 @@
       <c r="AL119" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AM119" s="3" t="s">
+      <c r="AM119" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="AN119" s="3"/>
+      <c r="AN119" s="4"/>
       <c r="AO119" s="1"/>
     </row>
     <row r="120" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -16955,10 +16955,10 @@
       <c r="AL120" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AM120" s="3" t="s">
+      <c r="AM120" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN120" s="3"/>
+      <c r="AN120" s="4"/>
       <c r="AO120" s="1"/>
     </row>
     <row r="121" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -17076,10 +17076,10 @@
       <c r="AL121" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="AM121" s="3" t="s">
+      <c r="AM121" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="AN121" s="3"/>
+      <c r="AN121" s="4"/>
       <c r="AO121" s="1"/>
     </row>
     <row r="122" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -17197,10 +17197,10 @@
       <c r="AL122" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AM122" s="3" t="s">
+      <c r="AM122" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="AN122" s="3"/>
+      <c r="AN122" s="4"/>
       <c r="AO122" s="1"/>
     </row>
     <row r="123" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -17318,10 +17318,10 @@
       <c r="AL123" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AM123" s="3" t="s">
+      <c r="AM123" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AN123" s="3"/>
+      <c r="AN123" s="4"/>
       <c r="AO123" s="1"/>
     </row>
     <row r="124" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -17439,11 +17439,11 @@
       <c r="AL124" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AM124" s="3" t="s">
+      <c r="AM124" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="AN124" s="3"/>
-      <c r="AO124" s="3"/>
+      <c r="AN124" s="4"/>
+      <c r="AO124" s="4"/>
     </row>
     <row r="125" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
@@ -17560,10 +17560,10 @@
       <c r="AL125" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM125" s="3" t="s">
+      <c r="AM125" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN125" s="3"/>
+      <c r="AN125" s="4"/>
       <c r="AO125" s="1"/>
     </row>
     <row r="126" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -17681,11 +17681,11 @@
       <c r="AL126" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AM126" s="3" t="s">
+      <c r="AM126" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="AN126" s="3"/>
-      <c r="AO126" s="3"/>
+      <c r="AN126" s="4"/>
+      <c r="AO126" s="4"/>
     </row>
     <row r="127" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
@@ -17802,10 +17802,10 @@
       <c r="AL127" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AM127" s="3" t="s">
+      <c r="AM127" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="AN127" s="3"/>
+      <c r="AN127" s="4"/>
       <c r="AO127" s="1"/>
     </row>
     <row r="128" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -17923,10 +17923,10 @@
       <c r="AL128" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AM128" s="3" t="s">
+      <c r="AM128" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN128" s="3"/>
+      <c r="AN128" s="4"/>
       <c r="AO128" s="1"/>
     </row>
     <row r="129" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -18044,11 +18044,11 @@
       <c r="AL129" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AM129" s="3" t="s">
+      <c r="AM129" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="AN129" s="3"/>
-      <c r="AO129" s="3"/>
+      <c r="AN129" s="4"/>
+      <c r="AO129" s="4"/>
     </row>
     <row r="130" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
@@ -18165,10 +18165,10 @@
       <c r="AL130" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AM130" s="3" t="s">
+      <c r="AM130" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN130" s="3"/>
+      <c r="AN130" s="4"/>
       <c r="AO130" s="1"/>
     </row>
     <row r="131" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -18286,10 +18286,10 @@
       <c r="AL131" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AM131" s="3" t="s">
+      <c r="AM131" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="AN131" s="3"/>
+      <c r="AN131" s="4"/>
       <c r="AO131" s="1"/>
     </row>
     <row r="132" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -18407,10 +18407,10 @@
       <c r="AL132" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AM132" s="3" t="s">
+      <c r="AM132" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AN132" s="3"/>
+      <c r="AN132" s="4"/>
       <c r="AO132" s="1"/>
     </row>
     <row r="133" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -18528,10 +18528,10 @@
       <c r="AL133" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AM133" s="3" t="s">
+      <c r="AM133" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN133" s="3"/>
+      <c r="AN133" s="4"/>
       <c r="AO133" s="1"/>
     </row>
     <row r="134" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -18649,11 +18649,11 @@
       <c r="AL134" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AM134" s="3" t="s">
+      <c r="AM134" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="AN134" s="3"/>
-      <c r="AO134" s="3"/>
+      <c r="AN134" s="4"/>
+      <c r="AO134" s="4"/>
     </row>
     <row r="135" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
@@ -18770,11 +18770,11 @@
       <c r="AL135" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AM135" s="3" t="s">
+      <c r="AM135" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="AN135" s="3"/>
-      <c r="AO135" s="3"/>
+      <c r="AN135" s="4"/>
+      <c r="AO135" s="4"/>
     </row>
     <row r="136" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
@@ -18891,11 +18891,11 @@
       <c r="AL136" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AM136" s="3" t="s">
+      <c r="AM136" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="AN136" s="3"/>
-      <c r="AO136" s="3"/>
+      <c r="AN136" s="4"/>
+      <c r="AO136" s="4"/>
     </row>
     <row r="137" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
@@ -19012,10 +19012,10 @@
       <c r="AL137" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AM137" s="3" t="s">
+      <c r="AM137" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AN137" s="3"/>
+      <c r="AN137" s="4"/>
       <c r="AO137" s="1"/>
     </row>
     <row r="138" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -19133,11 +19133,11 @@
       <c r="AL138" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AM138" s="3" t="s">
+      <c r="AM138" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="AN138" s="3"/>
-      <c r="AO138" s="3"/>
+      <c r="AN138" s="4"/>
+      <c r="AO138" s="4"/>
     </row>
     <row r="139" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
@@ -19254,11 +19254,11 @@
       <c r="AL139" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AM139" s="3" t="s">
+      <c r="AM139" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="AN139" s="3"/>
-      <c r="AO139" s="3"/>
+      <c r="AN139" s="4"/>
+      <c r="AO139" s="4"/>
     </row>
     <row r="140" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
@@ -19375,10 +19375,10 @@
       <c r="AL140" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AM140" s="3" t="s">
+      <c r="AM140" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AN140" s="3"/>
+      <c r="AN140" s="4"/>
       <c r="AO140" s="1"/>
     </row>
     <row r="141" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -19496,10 +19496,10 @@
       <c r="AL141" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AM141" s="3" t="s">
+      <c r="AM141" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AN141" s="3"/>
+      <c r="AN141" s="4"/>
       <c r="AO141" s="1"/>
     </row>
     <row r="142" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -19617,10 +19617,10 @@
       <c r="AL142" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AM142" s="3" t="s">
+      <c r="AM142" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="AN142" s="3"/>
+      <c r="AN142" s="4"/>
       <c r="AO142" s="1"/>
     </row>
     <row r="143" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -19738,11 +19738,11 @@
       <c r="AL143" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AM143" s="3" t="s">
+      <c r="AM143" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="AN143" s="3"/>
-      <c r="AO143" s="3"/>
+      <c r="AN143" s="4"/>
+      <c r="AO143" s="4"/>
     </row>
     <row r="144" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
@@ -19859,11 +19859,11 @@
       <c r="AL144" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AM144" s="3" t="s">
+      <c r="AM144" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="AN144" s="3"/>
-      <c r="AO144" s="3"/>
+      <c r="AN144" s="4"/>
+      <c r="AO144" s="4"/>
     </row>
     <row r="145" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
@@ -19980,10 +19980,10 @@
       <c r="AL145" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AM145" s="3" t="s">
+      <c r="AM145" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN145" s="3"/>
+      <c r="AN145" s="4"/>
       <c r="AO145" s="1"/>
     </row>
     <row r="146" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -20101,10 +20101,10 @@
       <c r="AL146" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AM146" s="3" t="s">
+      <c r="AM146" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="AN146" s="3"/>
+      <c r="AN146" s="4"/>
       <c r="AO146" s="1"/>
     </row>
     <row r="147" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -20222,10 +20222,10 @@
       <c r="AL147" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AM147" s="3" t="s">
+      <c r="AM147" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN147" s="3"/>
+      <c r="AN147" s="4"/>
       <c r="AO147" s="1"/>
     </row>
     <row r="148" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -20343,11 +20343,11 @@
       <c r="AL148" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AM148" s="3" t="s">
+      <c r="AM148" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="AN148" s="3"/>
-      <c r="AO148" s="3"/>
+      <c r="AN148" s="4"/>
+      <c r="AO148" s="4"/>
     </row>
     <row r="149" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
@@ -20464,11 +20464,11 @@
       <c r="AL149" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="AM149" s="3" t="s">
+      <c r="AM149" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="AN149" s="3"/>
-      <c r="AO149" s="3"/>
+      <c r="AN149" s="4"/>
+      <c r="AO149" s="4"/>
     </row>
     <row r="150" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
@@ -20585,10 +20585,10 @@
       <c r="AL150" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="AM150" s="3" t="s">
+      <c r="AM150" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN150" s="3"/>
+      <c r="AN150" s="4"/>
       <c r="AO150" s="1"/>
     </row>
     <row r="151" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -20706,11 +20706,11 @@
       <c r="AL151" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="AM151" s="3" t="s">
+      <c r="AM151" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="AN151" s="3"/>
-      <c r="AO151" s="3"/>
+      <c r="AN151" s="4"/>
+      <c r="AO151" s="4"/>
     </row>
     <row r="152" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
@@ -20827,10 +20827,10 @@
       <c r="AL152" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AM152" s="3" t="s">
+      <c r="AM152" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AN152" s="3"/>
+      <c r="AN152" s="4"/>
       <c r="AO152" s="1"/>
     </row>
     <row r="153" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -20948,11 +20948,11 @@
       <c r="AL153" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="AM153" s="3" t="s">
+      <c r="AM153" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="AN153" s="3"/>
-      <c r="AO153" s="3"/>
+      <c r="AN153" s="4"/>
+      <c r="AO153" s="4"/>
     </row>
     <row r="154" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
@@ -21069,11 +21069,11 @@
       <c r="AL154" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AM154" s="3" t="s">
+      <c r="AM154" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AN154" s="3"/>
-      <c r="AO154" s="3"/>
+      <c r="AN154" s="4"/>
+      <c r="AO154" s="4"/>
     </row>
     <row r="155" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
@@ -21190,11 +21190,11 @@
       <c r="AL155" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="AM155" s="3" t="s">
+      <c r="AM155" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="AN155" s="3"/>
-      <c r="AO155" s="3"/>
+      <c r="AN155" s="4"/>
+      <c r="AO155" s="4"/>
     </row>
     <row r="156" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
@@ -21311,10 +21311,10 @@
       <c r="AL156" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="AM156" s="3" t="s">
+      <c r="AM156" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN156" s="3"/>
+      <c r="AN156" s="4"/>
       <c r="AO156" s="1"/>
     </row>
     <row r="157" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -21432,10 +21432,10 @@
       <c r="AL157" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="AM157" s="3" t="s">
+      <c r="AM157" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN157" s="3"/>
+      <c r="AN157" s="4"/>
       <c r="AO157" s="1"/>
     </row>
     <row r="158" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -21553,11 +21553,11 @@
       <c r="AL158" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="AM158" s="3" t="s">
+      <c r="AM158" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="AN158" s="3"/>
-      <c r="AO158" s="3"/>
+      <c r="AN158" s="4"/>
+      <c r="AO158" s="4"/>
     </row>
     <row r="159" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
@@ -21674,11 +21674,11 @@
       <c r="AL159" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="AM159" s="3" t="s">
+      <c r="AM159" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="AN159" s="3"/>
-      <c r="AO159" s="3"/>
+      <c r="AN159" s="4"/>
+      <c r="AO159" s="4"/>
     </row>
     <row r="160" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
@@ -21795,10 +21795,10 @@
       <c r="AL160" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AM160" s="3" t="s">
+      <c r="AM160" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AN160" s="3"/>
+      <c r="AN160" s="4"/>
       <c r="AO160" s="1"/>
     </row>
     <row r="161" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -21916,10 +21916,10 @@
       <c r="AL161" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AM161" s="3" t="s">
+      <c r="AM161" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN161" s="3"/>
+      <c r="AN161" s="4"/>
       <c r="AO161" s="1"/>
     </row>
     <row r="162" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -22037,11 +22037,11 @@
       <c r="AL162" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="AM162" s="3" t="s">
+      <c r="AM162" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="AN162" s="3"/>
-      <c r="AO162" s="3"/>
+      <c r="AN162" s="4"/>
+      <c r="AO162" s="4"/>
     </row>
     <row r="163" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
@@ -22158,11 +22158,11 @@
       <c r="AL163" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="AM163" s="3" t="s">
+      <c r="AM163" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="AN163" s="3"/>
-      <c r="AO163" s="3"/>
+      <c r="AN163" s="4"/>
+      <c r="AO163" s="4"/>
     </row>
     <row r="164" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
@@ -22279,10 +22279,10 @@
       <c r="AL164" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="AM164" s="3" t="s">
+      <c r="AM164" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AN164" s="3"/>
+      <c r="AN164" s="4"/>
       <c r="AO164" s="1"/>
     </row>
     <row r="165" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -22400,10 +22400,10 @@
       <c r="AL165" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="AM165" s="3" t="s">
+      <c r="AM165" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="AN165" s="3"/>
+      <c r="AN165" s="4"/>
       <c r="AO165" s="1"/>
     </row>
     <row r="166" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -22521,11 +22521,11 @@
       <c r="AL166" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="AM166" s="3" t="s">
+      <c r="AM166" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="AN166" s="3"/>
-      <c r="AO166" s="3"/>
+      <c r="AN166" s="4"/>
+      <c r="AO166" s="4"/>
     </row>
     <row r="167" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
@@ -22642,10 +22642,10 @@
       <c r="AL167" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="AM167" s="3" t="s">
+      <c r="AM167" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="AN167" s="3"/>
+      <c r="AN167" s="4"/>
       <c r="AO167" s="1"/>
     </row>
     <row r="168" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -22763,10 +22763,10 @@
       <c r="AL168" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AM168" s="3" t="s">
+      <c r="AM168" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN168" s="3"/>
+      <c r="AN168" s="4"/>
       <c r="AO168" s="1"/>
     </row>
     <row r="169" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -22884,10 +22884,10 @@
       <c r="AL169" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="AM169" s="3" t="s">
+      <c r="AM169" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AN169" s="3"/>
+      <c r="AN169" s="4"/>
       <c r="AO169" s="1"/>
     </row>
     <row r="170" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -23005,10 +23005,10 @@
       <c r="AL170" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AM170" s="3" t="s">
+      <c r="AM170" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN170" s="3"/>
+      <c r="AN170" s="4"/>
       <c r="AO170" s="1"/>
     </row>
     <row r="171" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -23126,10 +23126,10 @@
       <c r="AL171" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="AM171" s="3" t="s">
+      <c r="AM171" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="AN171" s="3"/>
+      <c r="AN171" s="4"/>
       <c r="AO171" s="1"/>
     </row>
     <row r="172" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -23247,10 +23247,10 @@
       <c r="AL172" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="AM172" s="3" t="s">
+      <c r="AM172" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="AN172" s="3"/>
+      <c r="AN172" s="4"/>
       <c r="AO172" s="1"/>
     </row>
     <row r="173" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -23368,11 +23368,11 @@
       <c r="AL173" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="AM173" s="3" t="s">
+      <c r="AM173" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="AN173" s="3"/>
-      <c r="AO173" s="3"/>
+      <c r="AN173" s="4"/>
+      <c r="AO173" s="4"/>
     </row>
     <row r="174" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
@@ -23489,10 +23489,10 @@
       <c r="AL174" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="AM174" s="3" t="s">
+      <c r="AM174" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AN174" s="3"/>
+      <c r="AN174" s="4"/>
       <c r="AO174" s="1"/>
     </row>
     <row r="175" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -23610,10 +23610,10 @@
       <c r="AL175" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AM175" s="3" t="s">
+      <c r="AM175" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN175" s="3"/>
+      <c r="AN175" s="4"/>
       <c r="AO175" s="1"/>
     </row>
     <row r="176" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -23731,11 +23731,11 @@
       <c r="AL176" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="AM176" s="3" t="s">
+      <c r="AM176" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="AN176" s="3"/>
-      <c r="AO176" s="3"/>
+      <c r="AN176" s="4"/>
+      <c r="AO176" s="4"/>
     </row>
     <row r="177" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
@@ -23852,11 +23852,11 @@
       <c r="AL177" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AM177" s="3" t="s">
+      <c r="AM177" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="AN177" s="3"/>
-      <c r="AO177" s="3"/>
+      <c r="AN177" s="4"/>
+      <c r="AO177" s="4"/>
     </row>
     <row r="178" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
@@ -23973,10 +23973,10 @@
       <c r="AL178" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AM178" s="3" t="s">
+      <c r="AM178" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN178" s="3"/>
+      <c r="AN178" s="4"/>
       <c r="AO178" s="1"/>
     </row>
     <row r="179" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -24094,10 +24094,10 @@
       <c r="AL179" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="AM179" s="3" t="s">
+      <c r="AM179" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="AN179" s="3"/>
+      <c r="AN179" s="4"/>
       <c r="AO179" s="1"/>
     </row>
     <row r="180" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -24215,10 +24215,10 @@
       <c r="AL180" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="AM180" s="3" t="s">
+      <c r="AM180" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="AN180" s="3"/>
+      <c r="AN180" s="4"/>
       <c r="AO180" s="1"/>
     </row>
     <row r="181" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -24336,10 +24336,10 @@
       <c r="AL181" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="AM181" s="3" t="s">
+      <c r="AM181" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="AN181" s="3"/>
+      <c r="AN181" s="4"/>
       <c r="AO181" s="1"/>
     </row>
     <row r="182" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -24457,11 +24457,11 @@
       <c r="AL182" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="AM182" s="3" t="s">
+      <c r="AM182" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="AN182" s="3"/>
-      <c r="AO182" s="3"/>
+      <c r="AN182" s="4"/>
+      <c r="AO182" s="4"/>
     </row>
     <row r="183" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
@@ -24578,10 +24578,10 @@
       <c r="AL183" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="AM183" s="3" t="s">
+      <c r="AM183" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="AN183" s="3"/>
+      <c r="AN183" s="4"/>
       <c r="AO183" s="1"/>
     </row>
     <row r="184" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -24699,11 +24699,11 @@
       <c r="AL184" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AM184" s="3" t="s">
+      <c r="AM184" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="AN184" s="3"/>
-      <c r="AO184" s="3"/>
+      <c r="AN184" s="4"/>
+      <c r="AO184" s="4"/>
     </row>
     <row r="185" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
@@ -24820,11 +24820,11 @@
       <c r="AL185" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AM185" s="3" t="s">
+      <c r="AM185" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="AN185" s="3"/>
-      <c r="AO185" s="3"/>
+      <c r="AN185" s="4"/>
+      <c r="AO185" s="4"/>
     </row>
     <row r="186" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
@@ -24941,10 +24941,10 @@
       <c r="AL186" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="AM186" s="3" t="s">
+      <c r="AM186" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN186" s="3"/>
+      <c r="AN186" s="4"/>
       <c r="AO186" s="1"/>
     </row>
     <row r="187" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -25062,10 +25062,10 @@
       <c r="AL187" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="AM187" s="3" t="s">
+      <c r="AM187" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN187" s="3"/>
+      <c r="AN187" s="4"/>
       <c r="AO187" s="1"/>
     </row>
     <row r="188" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -25183,11 +25183,11 @@
       <c r="AL188" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="AM188" s="3" t="s">
+      <c r="AM188" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="AN188" s="3"/>
-      <c r="AO188" s="3"/>
+      <c r="AN188" s="4"/>
+      <c r="AO188" s="4"/>
     </row>
     <row r="189" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
@@ -25304,11 +25304,11 @@
       <c r="AL189" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AM189" s="3" t="s">
+      <c r="AM189" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="AN189" s="3"/>
-      <c r="AO189" s="3"/>
+      <c r="AN189" s="4"/>
+      <c r="AO189" s="4"/>
     </row>
     <row r="190" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
@@ -25425,10 +25425,10 @@
       <c r="AL190" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AM190" s="3" t="s">
+      <c r="AM190" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AN190" s="3"/>
+      <c r="AN190" s="4"/>
       <c r="AO190" s="1"/>
     </row>
     <row r="191" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -25546,10 +25546,10 @@
       <c r="AL191" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AM191" s="3" t="s">
+      <c r="AM191" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="AN191" s="3"/>
+      <c r="AN191" s="4"/>
       <c r="AO191" s="1"/>
     </row>
     <row r="192" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -25667,11 +25667,11 @@
       <c r="AL192" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="AM192" s="3" t="s">
+      <c r="AM192" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="AN192" s="3"/>
-      <c r="AO192" s="3"/>
+      <c r="AN192" s="4"/>
+      <c r="AO192" s="4"/>
     </row>
     <row r="193" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
@@ -25788,11 +25788,11 @@
       <c r="AL193" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="AM193" s="3" t="s">
+      <c r="AM193" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="AN193" s="3"/>
-      <c r="AO193" s="3"/>
+      <c r="AN193" s="4"/>
+      <c r="AO193" s="4"/>
     </row>
     <row r="194" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
@@ -25909,10 +25909,10 @@
       <c r="AL194" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="AM194" s="3" t="s">
+      <c r="AM194" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN194" s="3"/>
+      <c r="AN194" s="4"/>
       <c r="AO194" s="1"/>
     </row>
     <row r="195" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -26030,10 +26030,10 @@
       <c r="AL195" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="AM195" s="3" t="s">
+      <c r="AM195" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN195" s="3"/>
+      <c r="AN195" s="4"/>
       <c r="AO195" s="1"/>
     </row>
     <row r="196" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -26151,11 +26151,11 @@
       <c r="AL196" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="AM196" s="3" t="s">
+      <c r="AM196" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="AN196" s="3"/>
-      <c r="AO196" s="3"/>
+      <c r="AN196" s="4"/>
+      <c r="AO196" s="4"/>
     </row>
     <row r="197" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
@@ -26272,11 +26272,11 @@
       <c r="AL197" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AM197" s="3" t="s">
+      <c r="AM197" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AN197" s="3"/>
-      <c r="AO197" s="3"/>
+      <c r="AN197" s="4"/>
+      <c r="AO197" s="4"/>
     </row>
     <row r="198" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
@@ -26393,10 +26393,10 @@
       <c r="AL198" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="AM198" s="3" t="s">
+      <c r="AM198" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="AN198" s="3"/>
+      <c r="AN198" s="4"/>
       <c r="AO198" s="1"/>
     </row>
     <row r="199" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -26514,11 +26514,11 @@
       <c r="AL199" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="AM199" s="3" t="s">
+      <c r="AM199" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="AN199" s="3"/>
-      <c r="AO199" s="3"/>
+      <c r="AN199" s="4"/>
+      <c r="AO199" s="4"/>
     </row>
     <row r="200" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
@@ -26635,11 +26635,11 @@
       <c r="AL200" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="AM200" s="3" t="s">
+      <c r="AM200" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AN200" s="3"/>
-      <c r="AO200" s="3"/>
+      <c r="AN200" s="4"/>
+      <c r="AO200" s="4"/>
     </row>
     <row r="201" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
@@ -26756,11 +26756,11 @@
       <c r="AL201" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AM201" s="3" t="s">
+      <c r="AM201" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AN201" s="3"/>
-      <c r="AO201" s="3"/>
+      <c r="AN201" s="4"/>
+      <c r="AO201" s="4"/>
     </row>
     <row r="202" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
@@ -26877,10 +26877,10 @@
       <c r="AL202" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="AM202" s="3" t="s">
+      <c r="AM202" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AN202" s="3"/>
+      <c r="AN202" s="4"/>
       <c r="AO202" s="1"/>
     </row>
     <row r="203" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -26998,11 +26998,11 @@
       <c r="AL203" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="AM203" s="3" t="s">
+      <c r="AM203" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="AN203" s="3"/>
-      <c r="AO203" s="3"/>
+      <c r="AN203" s="4"/>
+      <c r="AO203" s="4"/>
     </row>
     <row r="204" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
@@ -27119,10 +27119,10 @@
       <c r="AL204" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AM204" s="3" t="s">
+      <c r="AM204" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN204" s="3"/>
+      <c r="AN204" s="4"/>
       <c r="AO204" s="1"/>
     </row>
     <row r="205" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -27240,10 +27240,10 @@
       <c r="AL205" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="AM205" s="3" t="s">
+      <c r="AM205" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="AN205" s="3"/>
+      <c r="AN205" s="4"/>
       <c r="AO205" s="1"/>
     </row>
     <row r="206" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -27361,10 +27361,10 @@
       <c r="AL206" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="AM206" s="3" t="s">
+      <c r="AM206" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="AN206" s="3"/>
+      <c r="AN206" s="4"/>
       <c r="AO206" s="1"/>
     </row>
     <row r="207" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -27482,10 +27482,10 @@
       <c r="AL207" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AM207" s="3" t="s">
+      <c r="AM207" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN207" s="3"/>
+      <c r="AN207" s="4"/>
       <c r="AO207" s="1"/>
     </row>
     <row r="208" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -27603,10 +27603,10 @@
       <c r="AL208" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AM208" s="3" t="s">
+      <c r="AM208" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AN208" s="3"/>
+      <c r="AN208" s="4"/>
       <c r="AO208" s="1"/>
     </row>
     <row r="209" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -27724,11 +27724,11 @@
       <c r="AL209" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AM209" s="3" t="s">
+      <c r="AM209" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="AN209" s="3"/>
-      <c r="AO209" s="3"/>
+      <c r="AN209" s="4"/>
+      <c r="AO209" s="4"/>
     </row>
     <row r="210" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
@@ -27845,10 +27845,10 @@
       <c r="AL210" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="AM210" s="3" t="s">
+      <c r="AM210" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AN210" s="3"/>
+      <c r="AN210" s="4"/>
       <c r="AO210" s="1"/>
     </row>
     <row r="211" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -27966,10 +27966,10 @@
       <c r="AL211" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="AM211" s="3" t="s">
+      <c r="AM211" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN211" s="3"/>
+      <c r="AN211" s="4"/>
       <c r="AO211" s="1"/>
     </row>
     <row r="212" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -28087,11 +28087,11 @@
       <c r="AL212" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="AM212" s="3" t="s">
+      <c r="AM212" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="AN212" s="3"/>
-      <c r="AO212" s="3"/>
+      <c r="AN212" s="4"/>
+      <c r="AO212" s="4"/>
     </row>
     <row r="213" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
@@ -28208,10 +28208,10 @@
       <c r="AL213" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AM213" s="3" t="s">
+      <c r="AM213" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN213" s="3"/>
+      <c r="AN213" s="4"/>
       <c r="AO213" s="1"/>
     </row>
     <row r="214" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -28329,11 +28329,11 @@
       <c r="AL214" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="AM214" s="3" t="s">
+      <c r="AM214" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="AN214" s="3"/>
-      <c r="AO214" s="3"/>
+      <c r="AN214" s="4"/>
+      <c r="AO214" s="4"/>
     </row>
     <row r="215" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
@@ -28450,10 +28450,10 @@
       <c r="AL215" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="AM215" s="3" t="s">
+      <c r="AM215" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="AN215" s="3"/>
+      <c r="AN215" s="4"/>
       <c r="AO215" s="1"/>
     </row>
     <row r="216" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -28571,11 +28571,11 @@
       <c r="AL216" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="AM216" s="3" t="s">
+      <c r="AM216" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="AN216" s="3"/>
-      <c r="AO216" s="3"/>
+      <c r="AN216" s="4"/>
+      <c r="AO216" s="4"/>
     </row>
     <row r="217" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
@@ -28692,10 +28692,10 @@
       <c r="AL217" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="AM217" s="3" t="s">
+      <c r="AM217" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="AN217" s="3"/>
+      <c r="AN217" s="4"/>
       <c r="AO217" s="1"/>
     </row>
     <row r="218" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -28813,10 +28813,10 @@
       <c r="AL218" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="AM218" s="3" t="s">
+      <c r="AM218" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AN218" s="3"/>
+      <c r="AN218" s="4"/>
       <c r="AO218" s="1"/>
     </row>
     <row r="219" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -28934,10 +28934,10 @@
       <c r="AL219" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="AM219" s="3" t="s">
+      <c r="AM219" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN219" s="3"/>
+      <c r="AN219" s="4"/>
       <c r="AO219" s="1"/>
     </row>
     <row r="220" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -29055,10 +29055,10 @@
       <c r="AL220" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="AM220" s="3" t="s">
+      <c r="AM220" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="AN220" s="3"/>
+      <c r="AN220" s="4"/>
       <c r="AO220" s="1"/>
     </row>
     <row r="221" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -29176,11 +29176,11 @@
       <c r="AL221" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="AM221" s="3" t="s">
+      <c r="AM221" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="AN221" s="3"/>
-      <c r="AO221" s="3"/>
+      <c r="AN221" s="4"/>
+      <c r="AO221" s="4"/>
     </row>
     <row r="222" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
@@ -29297,11 +29297,11 @@
       <c r="AL222" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="AM222" s="3" t="s">
+      <c r="AM222" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="AN222" s="3"/>
-      <c r="AO222" s="3"/>
+      <c r="AN222" s="4"/>
+      <c r="AO222" s="4"/>
     </row>
     <row r="223" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
@@ -29418,11 +29418,11 @@
       <c r="AL223" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="AM223" s="3" t="s">
+      <c r="AM223" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="AN223" s="3"/>
-      <c r="AO223" s="3"/>
+      <c r="AN223" s="4"/>
+      <c r="AO223" s="4"/>
     </row>
     <row r="224" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
@@ -29539,10 +29539,10 @@
       <c r="AL224" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="AM224" s="3" t="s">
+      <c r="AM224" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AN224" s="3"/>
+      <c r="AN224" s="4"/>
       <c r="AO224" s="1"/>
     </row>
     <row r="225" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -29660,10 +29660,10 @@
       <c r="AL225" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="AM225" s="3" t="s">
+      <c r="AM225" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="AN225" s="3"/>
+      <c r="AN225" s="4"/>
       <c r="AO225" s="1"/>
     </row>
     <row r="226" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -29781,10 +29781,10 @@
       <c r="AL226" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AM226" s="3" t="s">
+      <c r="AM226" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AN226" s="3"/>
+      <c r="AN226" s="4"/>
       <c r="AO226" s="1"/>
     </row>
     <row r="227" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -29902,10 +29902,10 @@
       <c r="AL227" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="AM227" s="3" t="s">
+      <c r="AM227" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN227" s="3"/>
+      <c r="AN227" s="4"/>
       <c r="AO227" s="1"/>
     </row>
     <row r="228" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -30023,10 +30023,10 @@
       <c r="AL228" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="AM228" s="3" t="s">
+      <c r="AM228" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN228" s="3"/>
+      <c r="AN228" s="4"/>
       <c r="AO228" s="1"/>
     </row>
     <row r="229" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -30144,11 +30144,11 @@
       <c r="AL229" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="AM229" s="3" t="s">
+      <c r="AM229" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="AN229" s="3"/>
-      <c r="AO229" s="3"/>
+      <c r="AN229" s="4"/>
+      <c r="AO229" s="4"/>
     </row>
     <row r="230" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
@@ -30265,11 +30265,11 @@
       <c r="AL230" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="AM230" s="3" t="s">
+      <c r="AM230" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="AN230" s="3"/>
-      <c r="AO230" s="3"/>
+      <c r="AN230" s="4"/>
+      <c r="AO230" s="4"/>
     </row>
     <row r="231" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
@@ -30386,10 +30386,10 @@
       <c r="AL231" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="AM231" s="3" t="s">
+      <c r="AM231" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN231" s="3"/>
+      <c r="AN231" s="4"/>
       <c r="AO231" s="1"/>
     </row>
     <row r="232" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -30507,10 +30507,10 @@
       <c r="AL232" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="AM232" s="3" t="s">
+      <c r="AM232" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN232" s="3"/>
+      <c r="AN232" s="4"/>
       <c r="AO232" s="1"/>
     </row>
     <row r="233" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -30628,10 +30628,10 @@
       <c r="AL233" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AM233" s="3" t="s">
+      <c r="AM233" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AN233" s="3"/>
+      <c r="AN233" s="4"/>
       <c r="AO233" s="1"/>
     </row>
     <row r="234" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -30749,10 +30749,10 @@
       <c r="AL234" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="AM234" s="3" t="s">
+      <c r="AM234" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AN234" s="3"/>
+      <c r="AN234" s="4"/>
       <c r="AO234" s="1"/>
     </row>
     <row r="235" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -30870,11 +30870,11 @@
       <c r="AL235" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="AM235" s="3" t="s">
+      <c r="AM235" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AN235" s="3"/>
-      <c r="AO235" s="3"/>
+      <c r="AN235" s="4"/>
+      <c r="AO235" s="4"/>
     </row>
     <row r="236" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
@@ -30991,11 +30991,11 @@
       <c r="AL236" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="AM236" s="3" t="s">
+      <c r="AM236" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="AN236" s="3"/>
-      <c r="AO236" s="3"/>
+      <c r="AN236" s="4"/>
+      <c r="AO236" s="4"/>
     </row>
     <row r="237" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
@@ -31112,11 +31112,11 @@
       <c r="AL237" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="AM237" s="3" t="s">
+      <c r="AM237" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="AN237" s="3"/>
-      <c r="AO237" s="3"/>
+      <c r="AN237" s="4"/>
+      <c r="AO237" s="4"/>
     </row>
     <row r="238" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
@@ -31233,11 +31233,11 @@
       <c r="AL238" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="AM238" s="3" t="s">
+      <c r="AM238" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="AN238" s="3"/>
-      <c r="AO238" s="3"/>
+      <c r="AN238" s="4"/>
+      <c r="AO238" s="4"/>
     </row>
     <row r="239" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
@@ -31354,10 +31354,10 @@
       <c r="AL239" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="AM239" s="3" t="s">
+      <c r="AM239" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN239" s="3"/>
+      <c r="AN239" s="4"/>
       <c r="AO239" s="1"/>
     </row>
     <row r="240" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -31475,11 +31475,11 @@
       <c r="AL240" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="AM240" s="3" t="s">
+      <c r="AM240" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="AN240" s="3"/>
-      <c r="AO240" s="3"/>
+      <c r="AN240" s="4"/>
+      <c r="AO240" s="4"/>
     </row>
     <row r="241" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
@@ -31596,10 +31596,10 @@
       <c r="AL241" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AM241" s="3" t="s">
+      <c r="AM241" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN241" s="3"/>
+      <c r="AN241" s="4"/>
       <c r="AO241" s="1"/>
     </row>
     <row r="242" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -31717,10 +31717,10 @@
       <c r="AL242" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="AM242" s="3" t="s">
+      <c r="AM242" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AN242" s="3"/>
+      <c r="AN242" s="4"/>
       <c r="AO242" s="1"/>
     </row>
     <row r="243" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -31838,11 +31838,11 @@
       <c r="AL243" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="AM243" s="3" t="s">
+      <c r="AM243" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="AN243" s="3"/>
-      <c r="AO243" s="3"/>
+      <c r="AN243" s="4"/>
+      <c r="AO243" s="4"/>
     </row>
     <row r="244" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
@@ -31959,11 +31959,11 @@
       <c r="AL244" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AM244" s="3" t="s">
+      <c r="AM244" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AN244" s="3"/>
-      <c r="AO244" s="3"/>
+      <c r="AN244" s="4"/>
+      <c r="AO244" s="4"/>
     </row>
     <row r="245" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
@@ -32080,11 +32080,11 @@
       <c r="AL245" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="AM245" s="3" t="s">
+      <c r="AM245" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="AN245" s="3"/>
-      <c r="AO245" s="3"/>
+      <c r="AN245" s="4"/>
+      <c r="AO245" s="4"/>
     </row>
     <row r="246" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
@@ -32201,10 +32201,10 @@
       <c r="AL246" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="AM246" s="3" t="s">
+      <c r="AM246" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AN246" s="3"/>
+      <c r="AN246" s="4"/>
       <c r="AO246" s="1"/>
     </row>
     <row r="247" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -32322,10 +32322,10 @@
       <c r="AL247" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="AM247" s="3" t="s">
+      <c r="AM247" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN247" s="3"/>
+      <c r="AN247" s="4"/>
       <c r="AO247" s="1"/>
     </row>
     <row r="248" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -32443,10 +32443,10 @@
       <c r="AL248" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="AM248" s="3" t="s">
+      <c r="AM248" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AN248" s="3"/>
+      <c r="AN248" s="4"/>
       <c r="AO248" s="1"/>
     </row>
     <row r="249" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -32564,11 +32564,11 @@
       <c r="AL249" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="AM249" s="3" t="s">
+      <c r="AM249" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="AN249" s="3"/>
-      <c r="AO249" s="3"/>
+      <c r="AN249" s="4"/>
+      <c r="AO249" s="4"/>
     </row>
     <row r="250" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
@@ -32685,11 +32685,11 @@
       <c r="AL250" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="AM250" s="3" t="s">
+      <c r="AM250" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="AN250" s="3"/>
-      <c r="AO250" s="3"/>
+      <c r="AN250" s="4"/>
+      <c r="AO250" s="4"/>
     </row>
     <row r="251" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
@@ -32806,10 +32806,10 @@
       <c r="AL251" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="AM251" s="3" t="s">
+      <c r="AM251" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN251" s="3"/>
+      <c r="AN251" s="4"/>
       <c r="AO251" s="1"/>
     </row>
     <row r="252" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -32927,11 +32927,11 @@
       <c r="AL252" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AM252" s="3" t="s">
+      <c r="AM252" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="AN252" s="3"/>
-      <c r="AO252" s="3"/>
+      <c r="AN252" s="4"/>
+      <c r="AO252" s="4"/>
     </row>
     <row r="253" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
@@ -33048,11 +33048,11 @@
       <c r="AL253" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="AM253" s="3" t="s">
+      <c r="AM253" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AN253" s="3"/>
-      <c r="AO253" s="3"/>
+      <c r="AN253" s="4"/>
+      <c r="AO253" s="4"/>
     </row>
     <row r="254" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
@@ -33169,11 +33169,11 @@
       <c r="AL254" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="AM254" s="3" t="s">
+      <c r="AM254" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="AN254" s="3"/>
-      <c r="AO254" s="3"/>
+      <c r="AN254" s="4"/>
+      <c r="AO254" s="4"/>
     </row>
     <row r="255" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
@@ -33290,11 +33290,11 @@
       <c r="AL255" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="AM255" s="3" t="s">
+      <c r="AM255" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="AN255" s="3"/>
-      <c r="AO255" s="3"/>
+      <c r="AN255" s="4"/>
+      <c r="AO255" s="4"/>
     </row>
     <row r="256" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
@@ -33411,10 +33411,10 @@
       <c r="AL256" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AM256" s="3" t="s">
+      <c r="AM256" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN256" s="3"/>
+      <c r="AN256" s="4"/>
       <c r="AO256" s="1"/>
     </row>
     <row r="257" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -33532,10 +33532,10 @@
       <c r="AL257" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="AM257" s="3" t="s">
+      <c r="AM257" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN257" s="3"/>
+      <c r="AN257" s="4"/>
       <c r="AO257" s="1"/>
     </row>
     <row r="258" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -33653,10 +33653,10 @@
       <c r="AL258" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM258" s="3" t="s">
+      <c r="AM258" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN258" s="3"/>
+      <c r="AN258" s="4"/>
       <c r="AO258" s="1"/>
     </row>
     <row r="259" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -33774,11 +33774,11 @@
       <c r="AL259" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="AM259" s="3" t="s">
+      <c r="AM259" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AN259" s="3"/>
-      <c r="AO259" s="3"/>
+      <c r="AN259" s="4"/>
+      <c r="AO259" s="4"/>
     </row>
     <row r="260" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
@@ -33895,11 +33895,11 @@
       <c r="AL260" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="AM260" s="3" t="s">
+      <c r="AM260" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AN260" s="3"/>
-      <c r="AO260" s="3"/>
+      <c r="AN260" s="4"/>
+      <c r="AO260" s="4"/>
     </row>
     <row r="261" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
@@ -34016,10 +34016,10 @@
       <c r="AL261" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="AM261" s="3" t="s">
+      <c r="AM261" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN261" s="3"/>
+      <c r="AN261" s="4"/>
       <c r="AO261" s="1"/>
     </row>
     <row r="262" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -34137,10 +34137,10 @@
       <c r="AL262" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AM262" s="3" t="s">
+      <c r="AM262" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AN262" s="3"/>
+      <c r="AN262" s="4"/>
       <c r="AO262" s="1"/>
     </row>
     <row r="263" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -34258,11 +34258,11 @@
       <c r="AL263" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="AM263" s="3" t="s">
+      <c r="AM263" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="AN263" s="3"/>
-      <c r="AO263" s="3"/>
+      <c r="AN263" s="4"/>
+      <c r="AO263" s="4"/>
     </row>
     <row r="264" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
@@ -34379,11 +34379,11 @@
       <c r="AL264" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="AM264" s="3" t="s">
+      <c r="AM264" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="AN264" s="3"/>
-      <c r="AO264" s="3"/>
+      <c r="AN264" s="4"/>
+      <c r="AO264" s="4"/>
     </row>
     <row r="265" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
@@ -34500,10 +34500,10 @@
       <c r="AL265" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AM265" s="3" t="s">
+      <c r="AM265" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN265" s="3"/>
+      <c r="AN265" s="4"/>
       <c r="AO265" s="1"/>
     </row>
     <row r="266" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -34621,10 +34621,10 @@
       <c r="AL266" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AM266" s="3" t="s">
+      <c r="AM266" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="AN266" s="3"/>
+      <c r="AN266" s="4"/>
       <c r="AO266" s="1"/>
     </row>
     <row r="267" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -34742,11 +34742,11 @@
       <c r="AL267" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="AM267" s="3" t="s">
+      <c r="AM267" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="AN267" s="3"/>
-      <c r="AO267" s="3"/>
+      <c r="AN267" s="4"/>
+      <c r="AO267" s="4"/>
     </row>
     <row r="268" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
@@ -34863,10 +34863,10 @@
       <c r="AL268" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="AM268" s="3" t="s">
+      <c r="AM268" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN268" s="3"/>
+      <c r="AN268" s="4"/>
       <c r="AO268" s="1"/>
     </row>
     <row r="269" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -34984,11 +34984,11 @@
       <c r="AL269" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="AM269" s="3" t="s">
+      <c r="AM269" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="AN269" s="3"/>
-      <c r="AO269" s="3"/>
+      <c r="AN269" s="4"/>
+      <c r="AO269" s="4"/>
     </row>
     <row r="270" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
@@ -35105,10 +35105,10 @@
       <c r="AL270" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="AM270" s="3" t="s">
+      <c r="AM270" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="AN270" s="3"/>
+      <c r="AN270" s="4"/>
       <c r="AO270" s="1"/>
     </row>
     <row r="271" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -35226,10 +35226,10 @@
       <c r="AL271" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM271" s="3" t="s">
+      <c r="AM271" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN271" s="3"/>
+      <c r="AN271" s="4"/>
       <c r="AO271" s="1"/>
     </row>
     <row r="272" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -35347,10 +35347,10 @@
       <c r="AL272" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="AM272" s="3" t="s">
+      <c r="AM272" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN272" s="3"/>
+      <c r="AN272" s="4"/>
       <c r="AO272" s="1"/>
     </row>
     <row r="273" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -35468,11 +35468,11 @@
       <c r="AL273" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="AM273" s="3" t="s">
+      <c r="AM273" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="AN273" s="3"/>
-      <c r="AO273" s="3"/>
+      <c r="AN273" s="4"/>
+      <c r="AO273" s="4"/>
     </row>
     <row r="274" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
@@ -35589,10 +35589,10 @@
       <c r="AL274" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AM274" s="3" t="s">
+      <c r="AM274" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="AN274" s="3"/>
+      <c r="AN274" s="4"/>
       <c r="AO274" s="1"/>
     </row>
     <row r="275" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -35710,10 +35710,10 @@
       <c r="AL275" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="AM275" s="3" t="s">
+      <c r="AM275" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AN275" s="3"/>
+      <c r="AN275" s="4"/>
       <c r="AO275" s="1"/>
     </row>
     <row r="276" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -35831,11 +35831,11 @@
       <c r="AL276" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="AM276" s="3" t="s">
+      <c r="AM276" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="AN276" s="3"/>
-      <c r="AO276" s="3"/>
+      <c r="AN276" s="4"/>
+      <c r="AO276" s="4"/>
     </row>
     <row r="277" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
@@ -35952,10 +35952,10 @@
       <c r="AL277" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="AM277" s="3" t="s">
+      <c r="AM277" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="AN277" s="3"/>
+      <c r="AN277" s="4"/>
       <c r="AO277" s="1"/>
     </row>
     <row r="278" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -36073,10 +36073,10 @@
       <c r="AL278" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="AM278" s="3" t="s">
+      <c r="AM278" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN278" s="3"/>
+      <c r="AN278" s="4"/>
       <c r="AO278" s="1"/>
     </row>
     <row r="279" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -36194,10 +36194,10 @@
       <c r="AL279" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="AM279" s="3" t="s">
+      <c r="AM279" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="AN279" s="3"/>
+      <c r="AN279" s="4"/>
       <c r="AO279" s="1"/>
     </row>
     <row r="280" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
@@ -36315,11 +36315,11 @@
       <c r="AL280" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AM280" s="3" t="s">
+      <c r="AM280" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AN280" s="3"/>
-      <c r="AO280" s="3"/>
+      <c r="AN280" s="4"/>
+      <c r="AO280" s="4"/>
     </row>
     <row r="281" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
@@ -36436,23 +36436,261 @@
       <c r="AL281" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="AM281" s="3" t="s">
+      <c r="AM281" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="AN281" s="3"/>
+      <c r="AN281" s="4"/>
       <c r="AO281" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="280">
-    <mergeCell ref="AM232:AN232"/>
-    <mergeCell ref="AM233:AN233"/>
-    <mergeCell ref="AM234:AN234"/>
-    <mergeCell ref="AM235:AO235"/>
-    <mergeCell ref="AM236:AO236"/>
-    <mergeCell ref="AM237:AO237"/>
-    <mergeCell ref="AM238:AO238"/>
-    <mergeCell ref="AM239:AN239"/>
-    <mergeCell ref="AM240:AO240"/>
+    <mergeCell ref="AM279:AN279"/>
+    <mergeCell ref="AM280:AO280"/>
+    <mergeCell ref="AM281:AN281"/>
+    <mergeCell ref="AM267:AO267"/>
+    <mergeCell ref="AM268:AN268"/>
+    <mergeCell ref="AM269:AO269"/>
+    <mergeCell ref="AM270:AN270"/>
+    <mergeCell ref="AM271:AN271"/>
+    <mergeCell ref="AM272:AN272"/>
+    <mergeCell ref="AM273:AO273"/>
+    <mergeCell ref="AM263:AO263"/>
+    <mergeCell ref="AM264:AO264"/>
+    <mergeCell ref="AM265:AN265"/>
+    <mergeCell ref="AM266:AN266"/>
+    <mergeCell ref="AM274:AN274"/>
+    <mergeCell ref="AM275:AN275"/>
+    <mergeCell ref="AM276:AO276"/>
+    <mergeCell ref="AM277:AN277"/>
+    <mergeCell ref="AM278:AN278"/>
+    <mergeCell ref="AM254:AO254"/>
+    <mergeCell ref="AM255:AO255"/>
+    <mergeCell ref="AM256:AN256"/>
+    <mergeCell ref="AM257:AN257"/>
+    <mergeCell ref="AM258:AN258"/>
+    <mergeCell ref="AM259:AO259"/>
+    <mergeCell ref="AM260:AO260"/>
+    <mergeCell ref="AM261:AN261"/>
+    <mergeCell ref="AM262:AN262"/>
+    <mergeCell ref="AM224:AN224"/>
+    <mergeCell ref="AM225:AN225"/>
+    <mergeCell ref="AM226:AN226"/>
+    <mergeCell ref="AM227:AN227"/>
+    <mergeCell ref="AM228:AN228"/>
+    <mergeCell ref="AM229:AO229"/>
+    <mergeCell ref="AM230:AO230"/>
+    <mergeCell ref="AM231:AN231"/>
+    <mergeCell ref="AM253:AO253"/>
+    <mergeCell ref="AM215:AN215"/>
+    <mergeCell ref="AM216:AO216"/>
+    <mergeCell ref="AM217:AN217"/>
+    <mergeCell ref="AM218:AN218"/>
+    <mergeCell ref="AM219:AN219"/>
+    <mergeCell ref="AM220:AN220"/>
+    <mergeCell ref="AM221:AO221"/>
+    <mergeCell ref="AM222:AO222"/>
+    <mergeCell ref="AM223:AO223"/>
+    <mergeCell ref="AM206:AN206"/>
+    <mergeCell ref="AM207:AN207"/>
+    <mergeCell ref="AM208:AN208"/>
+    <mergeCell ref="AM209:AO209"/>
+    <mergeCell ref="AM210:AN210"/>
+    <mergeCell ref="AM211:AN211"/>
+    <mergeCell ref="AM212:AO212"/>
+    <mergeCell ref="AM213:AN213"/>
+    <mergeCell ref="AM214:AO214"/>
+    <mergeCell ref="AM140:AN140"/>
+    <mergeCell ref="AM141:AN141"/>
+    <mergeCell ref="AM142:AN142"/>
+    <mergeCell ref="AM143:AO143"/>
+    <mergeCell ref="AM144:AO144"/>
+    <mergeCell ref="AM145:AN145"/>
+    <mergeCell ref="AM146:AN146"/>
+    <mergeCell ref="AM147:AN147"/>
+    <mergeCell ref="AM205:AN205"/>
+    <mergeCell ref="AM131:AN131"/>
+    <mergeCell ref="AM132:AN132"/>
+    <mergeCell ref="AM133:AN133"/>
+    <mergeCell ref="AM134:AO134"/>
+    <mergeCell ref="AM135:AO135"/>
+    <mergeCell ref="AM136:AO136"/>
+    <mergeCell ref="AM137:AN137"/>
+    <mergeCell ref="AM138:AO138"/>
+    <mergeCell ref="AM139:AO139"/>
+    <mergeCell ref="AM122:AN122"/>
+    <mergeCell ref="AM123:AN123"/>
+    <mergeCell ref="AM124:AO124"/>
+    <mergeCell ref="AM125:AN125"/>
+    <mergeCell ref="AM126:AO126"/>
+    <mergeCell ref="AM127:AN127"/>
+    <mergeCell ref="AM128:AN128"/>
+    <mergeCell ref="AM129:AO129"/>
+    <mergeCell ref="AM130:AN130"/>
+    <mergeCell ref="AM113:AN113"/>
+    <mergeCell ref="AM114:AN114"/>
+    <mergeCell ref="AM115:AN115"/>
+    <mergeCell ref="AM116:AN116"/>
+    <mergeCell ref="AM117:AN117"/>
+    <mergeCell ref="AM118:AN118"/>
+    <mergeCell ref="AM119:AN119"/>
+    <mergeCell ref="AM120:AN120"/>
+    <mergeCell ref="AM121:AN121"/>
+    <mergeCell ref="AM104:AO104"/>
+    <mergeCell ref="AM105:AO105"/>
+    <mergeCell ref="AM106:AN106"/>
+    <mergeCell ref="AM107:AO107"/>
+    <mergeCell ref="AM108:AO108"/>
+    <mergeCell ref="AM109:AN109"/>
+    <mergeCell ref="AM110:AO110"/>
+    <mergeCell ref="AM111:AO111"/>
+    <mergeCell ref="AM112:AO112"/>
+    <mergeCell ref="AM95:AN95"/>
+    <mergeCell ref="AM96:AN96"/>
+    <mergeCell ref="AM97:AO97"/>
+    <mergeCell ref="AM98:AO98"/>
+    <mergeCell ref="AM99:AO99"/>
+    <mergeCell ref="AM100:AN100"/>
+    <mergeCell ref="AM101:AN101"/>
+    <mergeCell ref="AM102:AN102"/>
+    <mergeCell ref="AM103:AN103"/>
+    <mergeCell ref="AM86:AO86"/>
+    <mergeCell ref="AM87:AO87"/>
+    <mergeCell ref="AM88:AO88"/>
+    <mergeCell ref="AM89:AO89"/>
+    <mergeCell ref="AM90:AN90"/>
+    <mergeCell ref="AM91:AN91"/>
+    <mergeCell ref="AM92:AN92"/>
+    <mergeCell ref="AM93:AN93"/>
+    <mergeCell ref="AM94:AN94"/>
+    <mergeCell ref="AM77:AO77"/>
+    <mergeCell ref="AM78:AN78"/>
+    <mergeCell ref="AM79:AO79"/>
+    <mergeCell ref="AM80:AN80"/>
+    <mergeCell ref="AM81:AN81"/>
+    <mergeCell ref="AM82:AO82"/>
+    <mergeCell ref="AM83:AN83"/>
+    <mergeCell ref="AM84:AO84"/>
+    <mergeCell ref="AM85:AO85"/>
+    <mergeCell ref="AM68:AN68"/>
+    <mergeCell ref="AM69:AN69"/>
+    <mergeCell ref="AM70:AO70"/>
+    <mergeCell ref="AM71:AO71"/>
+    <mergeCell ref="AM72:AN72"/>
+    <mergeCell ref="AM73:AN73"/>
+    <mergeCell ref="AM74:AO74"/>
+    <mergeCell ref="AM75:AN75"/>
+    <mergeCell ref="AM76:AN76"/>
+    <mergeCell ref="AM59:AO59"/>
+    <mergeCell ref="AM60:AO60"/>
+    <mergeCell ref="AM61:AN61"/>
+    <mergeCell ref="AM62:AO62"/>
+    <mergeCell ref="AM63:AN63"/>
+    <mergeCell ref="AM64:AO64"/>
+    <mergeCell ref="AM65:AN65"/>
+    <mergeCell ref="AM66:AN66"/>
+    <mergeCell ref="AM67:AN67"/>
+    <mergeCell ref="AM50:AO50"/>
+    <mergeCell ref="AM51:AN51"/>
+    <mergeCell ref="AM52:AO52"/>
+    <mergeCell ref="AM53:AO53"/>
+    <mergeCell ref="AM54:AO54"/>
+    <mergeCell ref="AM55:AO55"/>
+    <mergeCell ref="AM56:AN56"/>
+    <mergeCell ref="AM57:AO57"/>
+    <mergeCell ref="AM58:AN58"/>
+    <mergeCell ref="AM41:AO41"/>
+    <mergeCell ref="AM42:AO42"/>
+    <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="AM44:AO44"/>
+    <mergeCell ref="AM45:AO45"/>
+    <mergeCell ref="AM46:AO46"/>
+    <mergeCell ref="AM47:AO47"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AM49:AN49"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AM39:AO39"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AM25:AO25"/>
+    <mergeCell ref="AM26:AO26"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="AM28:AO28"/>
+    <mergeCell ref="AM29:AN29"/>
+    <mergeCell ref="AM30:AO30"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AM250:AO250"/>
+    <mergeCell ref="AM251:AN251"/>
+    <mergeCell ref="AM252:AO252"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM8:AO8"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AM10:AO10"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM13:AO13"/>
+    <mergeCell ref="AM14:AO14"/>
+    <mergeCell ref="AM15:AO15"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM18:AO18"/>
+    <mergeCell ref="AM19:AO19"/>
+    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AM185:AO185"/>
+    <mergeCell ref="AM186:AN186"/>
+    <mergeCell ref="AM187:AN187"/>
+    <mergeCell ref="AM188:AO188"/>
+    <mergeCell ref="AM189:AO189"/>
+    <mergeCell ref="AM246:AN246"/>
+    <mergeCell ref="AM247:AN247"/>
+    <mergeCell ref="AM248:AN248"/>
+    <mergeCell ref="AM249:AO249"/>
+    <mergeCell ref="AM190:AN190"/>
+    <mergeCell ref="AM191:AN191"/>
+    <mergeCell ref="AM192:AO192"/>
+    <mergeCell ref="AM193:AO193"/>
+    <mergeCell ref="AM194:AN194"/>
+    <mergeCell ref="AM195:AN195"/>
+    <mergeCell ref="AM196:AO196"/>
+    <mergeCell ref="AM197:AO197"/>
+    <mergeCell ref="AM198:AN198"/>
+    <mergeCell ref="AM199:AO199"/>
+    <mergeCell ref="AM200:AO200"/>
+    <mergeCell ref="AM201:AO201"/>
+    <mergeCell ref="AM202:AN202"/>
+    <mergeCell ref="AM203:AO203"/>
+    <mergeCell ref="AM204:AN204"/>
+    <mergeCell ref="AM176:AO176"/>
+    <mergeCell ref="AM177:AO177"/>
+    <mergeCell ref="AM178:AN178"/>
+    <mergeCell ref="AM179:AN179"/>
+    <mergeCell ref="AM180:AN180"/>
+    <mergeCell ref="AM181:AN181"/>
+    <mergeCell ref="AM182:AO182"/>
+    <mergeCell ref="AM183:AN183"/>
+    <mergeCell ref="AM184:AO184"/>
+    <mergeCell ref="AM167:AN167"/>
+    <mergeCell ref="AM168:AN168"/>
+    <mergeCell ref="AM169:AN169"/>
+    <mergeCell ref="AM170:AN170"/>
+    <mergeCell ref="AM171:AN171"/>
+    <mergeCell ref="AM172:AN172"/>
+    <mergeCell ref="AM173:AO173"/>
+    <mergeCell ref="AM174:AN174"/>
+    <mergeCell ref="AM175:AN175"/>
     <mergeCell ref="AM241:AN241"/>
     <mergeCell ref="AM242:AN242"/>
     <mergeCell ref="AM243:AO243"/>
@@ -36477,253 +36715,15 @@
     <mergeCell ref="AM164:AN164"/>
     <mergeCell ref="AM165:AN165"/>
     <mergeCell ref="AM166:AO166"/>
-    <mergeCell ref="AM167:AN167"/>
-    <mergeCell ref="AM168:AN168"/>
-    <mergeCell ref="AM169:AN169"/>
-    <mergeCell ref="AM170:AN170"/>
-    <mergeCell ref="AM171:AN171"/>
-    <mergeCell ref="AM172:AN172"/>
-    <mergeCell ref="AM173:AO173"/>
-    <mergeCell ref="AM174:AN174"/>
-    <mergeCell ref="AM175:AN175"/>
-    <mergeCell ref="AM176:AO176"/>
-    <mergeCell ref="AM177:AO177"/>
-    <mergeCell ref="AM178:AN178"/>
-    <mergeCell ref="AM179:AN179"/>
-    <mergeCell ref="AM180:AN180"/>
-    <mergeCell ref="AM181:AN181"/>
-    <mergeCell ref="AM182:AO182"/>
-    <mergeCell ref="AM183:AN183"/>
-    <mergeCell ref="AM184:AO184"/>
-    <mergeCell ref="AM185:AO185"/>
-    <mergeCell ref="AM186:AN186"/>
-    <mergeCell ref="AM187:AN187"/>
-    <mergeCell ref="AM188:AO188"/>
-    <mergeCell ref="AM189:AO189"/>
-    <mergeCell ref="AM246:AN246"/>
-    <mergeCell ref="AM247:AN247"/>
-    <mergeCell ref="AM248:AN248"/>
-    <mergeCell ref="AM249:AO249"/>
-    <mergeCell ref="AM190:AN190"/>
-    <mergeCell ref="AM191:AN191"/>
-    <mergeCell ref="AM192:AO192"/>
-    <mergeCell ref="AM193:AO193"/>
-    <mergeCell ref="AM194:AN194"/>
-    <mergeCell ref="AM195:AN195"/>
-    <mergeCell ref="AM196:AO196"/>
-    <mergeCell ref="AM197:AO197"/>
-    <mergeCell ref="AM198:AN198"/>
-    <mergeCell ref="AM199:AO199"/>
-    <mergeCell ref="AM200:AO200"/>
-    <mergeCell ref="AM201:AO201"/>
-    <mergeCell ref="AM202:AN202"/>
-    <mergeCell ref="AM203:AO203"/>
-    <mergeCell ref="AM204:AN204"/>
-    <mergeCell ref="AM250:AO250"/>
-    <mergeCell ref="AM251:AN251"/>
-    <mergeCell ref="AM252:AO252"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AM10:AO10"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM13:AO13"/>
-    <mergeCell ref="AM14:AO14"/>
-    <mergeCell ref="AM15:AO15"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM18:AO18"/>
-    <mergeCell ref="AM19:AO19"/>
-    <mergeCell ref="AM20:AO20"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AM25:AO25"/>
-    <mergeCell ref="AM26:AO26"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="AM28:AO28"/>
-    <mergeCell ref="AM29:AN29"/>
-    <mergeCell ref="AM30:AO30"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AM39:AO39"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="AM41:AO41"/>
-    <mergeCell ref="AM42:AO42"/>
-    <mergeCell ref="AM43:AN43"/>
-    <mergeCell ref="AM44:AO44"/>
-    <mergeCell ref="AM45:AO45"/>
-    <mergeCell ref="AM46:AO46"/>
-    <mergeCell ref="AM47:AO47"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AM49:AN49"/>
-    <mergeCell ref="AM50:AO50"/>
-    <mergeCell ref="AM51:AN51"/>
-    <mergeCell ref="AM52:AO52"/>
-    <mergeCell ref="AM53:AO53"/>
-    <mergeCell ref="AM54:AO54"/>
-    <mergeCell ref="AM55:AO55"/>
-    <mergeCell ref="AM56:AN56"/>
-    <mergeCell ref="AM57:AO57"/>
-    <mergeCell ref="AM58:AN58"/>
-    <mergeCell ref="AM59:AO59"/>
-    <mergeCell ref="AM60:AO60"/>
-    <mergeCell ref="AM61:AN61"/>
-    <mergeCell ref="AM62:AO62"/>
-    <mergeCell ref="AM63:AN63"/>
-    <mergeCell ref="AM64:AO64"/>
-    <mergeCell ref="AM65:AN65"/>
-    <mergeCell ref="AM66:AN66"/>
-    <mergeCell ref="AM67:AN67"/>
-    <mergeCell ref="AM68:AN68"/>
-    <mergeCell ref="AM69:AN69"/>
-    <mergeCell ref="AM70:AO70"/>
-    <mergeCell ref="AM71:AO71"/>
-    <mergeCell ref="AM72:AN72"/>
-    <mergeCell ref="AM73:AN73"/>
-    <mergeCell ref="AM74:AO74"/>
-    <mergeCell ref="AM75:AN75"/>
-    <mergeCell ref="AM76:AN76"/>
-    <mergeCell ref="AM77:AO77"/>
-    <mergeCell ref="AM78:AN78"/>
-    <mergeCell ref="AM79:AO79"/>
-    <mergeCell ref="AM80:AN80"/>
-    <mergeCell ref="AM81:AN81"/>
-    <mergeCell ref="AM82:AO82"/>
-    <mergeCell ref="AM83:AN83"/>
-    <mergeCell ref="AM84:AO84"/>
-    <mergeCell ref="AM85:AO85"/>
-    <mergeCell ref="AM86:AO86"/>
-    <mergeCell ref="AM87:AO87"/>
-    <mergeCell ref="AM88:AO88"/>
-    <mergeCell ref="AM89:AO89"/>
-    <mergeCell ref="AM90:AN90"/>
-    <mergeCell ref="AM91:AN91"/>
-    <mergeCell ref="AM92:AN92"/>
-    <mergeCell ref="AM93:AN93"/>
-    <mergeCell ref="AM94:AN94"/>
-    <mergeCell ref="AM95:AN95"/>
-    <mergeCell ref="AM96:AN96"/>
-    <mergeCell ref="AM97:AO97"/>
-    <mergeCell ref="AM98:AO98"/>
-    <mergeCell ref="AM99:AO99"/>
-    <mergeCell ref="AM100:AN100"/>
-    <mergeCell ref="AM101:AN101"/>
-    <mergeCell ref="AM102:AN102"/>
-    <mergeCell ref="AM103:AN103"/>
-    <mergeCell ref="AM104:AO104"/>
-    <mergeCell ref="AM105:AO105"/>
-    <mergeCell ref="AM106:AN106"/>
-    <mergeCell ref="AM107:AO107"/>
-    <mergeCell ref="AM108:AO108"/>
-    <mergeCell ref="AM109:AN109"/>
-    <mergeCell ref="AM110:AO110"/>
-    <mergeCell ref="AM111:AO111"/>
-    <mergeCell ref="AM112:AO112"/>
-    <mergeCell ref="AM113:AN113"/>
-    <mergeCell ref="AM114:AN114"/>
-    <mergeCell ref="AM115:AN115"/>
-    <mergeCell ref="AM116:AN116"/>
-    <mergeCell ref="AM117:AN117"/>
-    <mergeCell ref="AM118:AN118"/>
-    <mergeCell ref="AM119:AN119"/>
-    <mergeCell ref="AM120:AN120"/>
-    <mergeCell ref="AM121:AN121"/>
-    <mergeCell ref="AM122:AN122"/>
-    <mergeCell ref="AM123:AN123"/>
-    <mergeCell ref="AM124:AO124"/>
-    <mergeCell ref="AM125:AN125"/>
-    <mergeCell ref="AM126:AO126"/>
-    <mergeCell ref="AM127:AN127"/>
-    <mergeCell ref="AM128:AN128"/>
-    <mergeCell ref="AM129:AO129"/>
-    <mergeCell ref="AM130:AN130"/>
-    <mergeCell ref="AM131:AN131"/>
-    <mergeCell ref="AM132:AN132"/>
-    <mergeCell ref="AM133:AN133"/>
-    <mergeCell ref="AM134:AO134"/>
-    <mergeCell ref="AM135:AO135"/>
-    <mergeCell ref="AM136:AO136"/>
-    <mergeCell ref="AM137:AN137"/>
-    <mergeCell ref="AM138:AO138"/>
-    <mergeCell ref="AM139:AO139"/>
-    <mergeCell ref="AM140:AN140"/>
-    <mergeCell ref="AM141:AN141"/>
-    <mergeCell ref="AM142:AN142"/>
-    <mergeCell ref="AM143:AO143"/>
-    <mergeCell ref="AM144:AO144"/>
-    <mergeCell ref="AM145:AN145"/>
-    <mergeCell ref="AM146:AN146"/>
-    <mergeCell ref="AM147:AN147"/>
-    <mergeCell ref="AM205:AN205"/>
-    <mergeCell ref="AM206:AN206"/>
-    <mergeCell ref="AM207:AN207"/>
-    <mergeCell ref="AM208:AN208"/>
-    <mergeCell ref="AM209:AO209"/>
-    <mergeCell ref="AM210:AN210"/>
-    <mergeCell ref="AM211:AN211"/>
-    <mergeCell ref="AM212:AO212"/>
-    <mergeCell ref="AM213:AN213"/>
-    <mergeCell ref="AM214:AO214"/>
-    <mergeCell ref="AM215:AN215"/>
-    <mergeCell ref="AM216:AO216"/>
-    <mergeCell ref="AM217:AN217"/>
-    <mergeCell ref="AM218:AN218"/>
-    <mergeCell ref="AM219:AN219"/>
-    <mergeCell ref="AM220:AN220"/>
-    <mergeCell ref="AM221:AO221"/>
-    <mergeCell ref="AM222:AO222"/>
-    <mergeCell ref="AM223:AO223"/>
-    <mergeCell ref="AM224:AN224"/>
-    <mergeCell ref="AM225:AN225"/>
-    <mergeCell ref="AM226:AN226"/>
-    <mergeCell ref="AM227:AN227"/>
-    <mergeCell ref="AM228:AN228"/>
-    <mergeCell ref="AM229:AO229"/>
-    <mergeCell ref="AM230:AO230"/>
-    <mergeCell ref="AM231:AN231"/>
-    <mergeCell ref="AM253:AO253"/>
-    <mergeCell ref="AM254:AO254"/>
-    <mergeCell ref="AM255:AO255"/>
-    <mergeCell ref="AM256:AN256"/>
-    <mergeCell ref="AM257:AN257"/>
-    <mergeCell ref="AM258:AN258"/>
-    <mergeCell ref="AM259:AO259"/>
-    <mergeCell ref="AM260:AO260"/>
-    <mergeCell ref="AM261:AN261"/>
-    <mergeCell ref="AM262:AN262"/>
-    <mergeCell ref="AM263:AO263"/>
-    <mergeCell ref="AM264:AO264"/>
-    <mergeCell ref="AM265:AN265"/>
-    <mergeCell ref="AM266:AN266"/>
-    <mergeCell ref="AM274:AN274"/>
-    <mergeCell ref="AM275:AN275"/>
-    <mergeCell ref="AM276:AO276"/>
-    <mergeCell ref="AM277:AN277"/>
-    <mergeCell ref="AM278:AN278"/>
-    <mergeCell ref="AM279:AN279"/>
-    <mergeCell ref="AM280:AO280"/>
-    <mergeCell ref="AM281:AN281"/>
-    <mergeCell ref="AM267:AO267"/>
-    <mergeCell ref="AM268:AN268"/>
-    <mergeCell ref="AM269:AO269"/>
-    <mergeCell ref="AM270:AN270"/>
-    <mergeCell ref="AM271:AN271"/>
-    <mergeCell ref="AM272:AN272"/>
-    <mergeCell ref="AM273:AO273"/>
+    <mergeCell ref="AM232:AN232"/>
+    <mergeCell ref="AM233:AN233"/>
+    <mergeCell ref="AM234:AN234"/>
+    <mergeCell ref="AM235:AO235"/>
+    <mergeCell ref="AM236:AO236"/>
+    <mergeCell ref="AM237:AO237"/>
+    <mergeCell ref="AM238:AO238"/>
+    <mergeCell ref="AM239:AN239"/>
+    <mergeCell ref="AM240:AO240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
